--- a/script/summary/summary_grey_v1.xlsx
+++ b/script/summary/summary_grey_v1.xlsx
@@ -76,607 +76,607 @@
     <t>grey_v1</t>
   </si>
   <si>
-    <t>2023-05-30 10:29:59 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 10:31:32 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 10:33:05 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 10:34:38 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 10:36:11 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 10:37:44 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 10:39:17 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 10:40:50 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 10:42:23 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 10:43:56 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 10:45:29 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 10:47:02 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 10:48:35 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 10:50:08 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 10:51:41 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 10:53:14 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 10:54:47 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 10:56:20 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:07:53 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:09:26 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:10:59 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:12:32 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:14:05 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:15:39 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:17:12 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:18:45 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:20:18 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:21:51 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:23:24 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:24:57 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:26:30 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:28:03 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:29:36 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:41:09 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:42:42 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:44:15 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:45:48 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:47:21 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:48:54 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:50:27 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:52:00 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:53:34 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:55:07 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:56:40 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:58:13 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 11:59:47 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:01:20 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:02:54 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:04:27 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:06:01 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:07:35 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:09:09 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:10:42 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:12:16 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:13:49 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:15:23 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:16:58 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:18:33 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:20:50 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:22:24 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:23:57 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:25:31 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:27:05 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:28:57 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:30:31 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:32:05 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:33:39 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:35:13 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:46:49 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:48:23 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:50:00 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:51:34 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:53:08 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:54:42 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 12:56:18 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:07:53 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:09:28 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:11:04 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:12:39 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:14:13 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:15:48 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:17:22 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:18:58 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:20:33 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:22:08 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:23:42 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:25:18 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:26:54 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:28:29 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:30:04 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:31:39 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:33:15 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:34:50 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:36:27 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:38:03 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:39:39 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:51:14 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:52:49 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:54:23 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-30 13:56:02 WIB</t>
-  </si>
-  <si>
-    <t>1685417399</t>
-  </si>
-  <si>
-    <t>1685417492</t>
-  </si>
-  <si>
-    <t>1685417585</t>
-  </si>
-  <si>
-    <t>1685417678</t>
-  </si>
-  <si>
-    <t>1685417771</t>
-  </si>
-  <si>
-    <t>1685417864</t>
-  </si>
-  <si>
-    <t>1685417957</t>
-  </si>
-  <si>
-    <t>1685418050</t>
-  </si>
-  <si>
-    <t>1685418143</t>
-  </si>
-  <si>
-    <t>1685418236</t>
-  </si>
-  <si>
-    <t>1685418329</t>
-  </si>
-  <si>
-    <t>1685418422</t>
-  </si>
-  <si>
-    <t>1685418515</t>
-  </si>
-  <si>
-    <t>1685418608</t>
-  </si>
-  <si>
-    <t>1685418701</t>
-  </si>
-  <si>
-    <t>1685418794</t>
-  </si>
-  <si>
-    <t>1685418887</t>
-  </si>
-  <si>
-    <t>1685418980</t>
-  </si>
-  <si>
-    <t>1685419673</t>
-  </si>
-  <si>
-    <t>1685419766</t>
-  </si>
-  <si>
-    <t>1685419859</t>
-  </si>
-  <si>
-    <t>1685419952</t>
-  </si>
-  <si>
-    <t>1685420045</t>
-  </si>
-  <si>
-    <t>1685420139</t>
-  </si>
-  <si>
-    <t>1685420232</t>
-  </si>
-  <si>
-    <t>1685420325</t>
-  </si>
-  <si>
-    <t>1685420418</t>
-  </si>
-  <si>
-    <t>1685420511</t>
-  </si>
-  <si>
-    <t>1685420604</t>
-  </si>
-  <si>
-    <t>1685420697</t>
-  </si>
-  <si>
-    <t>1685420790</t>
-  </si>
-  <si>
-    <t>1685420883</t>
-  </si>
-  <si>
-    <t>1685420976</t>
-  </si>
-  <si>
-    <t>1685421669</t>
-  </si>
-  <si>
-    <t>1685421762</t>
-  </si>
-  <si>
-    <t>1685421855</t>
-  </si>
-  <si>
-    <t>1685421948</t>
-  </si>
-  <si>
-    <t>1685422041</t>
-  </si>
-  <si>
-    <t>1685422134</t>
-  </si>
-  <si>
-    <t>1685422227</t>
-  </si>
-  <si>
-    <t>1685422320</t>
-  </si>
-  <si>
-    <t>1685422414</t>
-  </si>
-  <si>
-    <t>1685422507</t>
-  </si>
-  <si>
-    <t>1685422600</t>
-  </si>
-  <si>
-    <t>1685422693</t>
-  </si>
-  <si>
-    <t>1685422787</t>
-  </si>
-  <si>
-    <t>1685422880</t>
-  </si>
-  <si>
-    <t>1685422974</t>
-  </si>
-  <si>
-    <t>1685423067</t>
-  </si>
-  <si>
-    <t>1685423161</t>
-  </si>
-  <si>
-    <t>1685423255</t>
-  </si>
-  <si>
-    <t>1685423349</t>
-  </si>
-  <si>
-    <t>1685423442</t>
-  </si>
-  <si>
-    <t>1685423536</t>
-  </si>
-  <si>
-    <t>1685423629</t>
-  </si>
-  <si>
-    <t>1685423723</t>
-  </si>
-  <si>
-    <t>1685423818</t>
-  </si>
-  <si>
-    <t>1685423913</t>
-  </si>
-  <si>
-    <t>1685424050</t>
-  </si>
-  <si>
-    <t>1685424144</t>
-  </si>
-  <si>
-    <t>1685424237</t>
-  </si>
-  <si>
-    <t>1685424331</t>
-  </si>
-  <si>
-    <t>1685424425</t>
-  </si>
-  <si>
-    <t>1685424537</t>
-  </si>
-  <si>
-    <t>1685424631</t>
-  </si>
-  <si>
-    <t>1685424725</t>
-  </si>
-  <si>
-    <t>1685424819</t>
-  </si>
-  <si>
-    <t>1685424913</t>
-  </si>
-  <si>
-    <t>1685425609</t>
-  </si>
-  <si>
-    <t>1685425703</t>
-  </si>
-  <si>
-    <t>1685425800</t>
-  </si>
-  <si>
-    <t>1685425894</t>
-  </si>
-  <si>
-    <t>1685425988</t>
-  </si>
-  <si>
-    <t>1685426082</t>
-  </si>
-  <si>
-    <t>1685426178</t>
-  </si>
-  <si>
-    <t>1685426873</t>
-  </si>
-  <si>
-    <t>1685426968</t>
-  </si>
-  <si>
-    <t>1685427064</t>
-  </si>
-  <si>
-    <t>1685427159</t>
-  </si>
-  <si>
-    <t>1685427253</t>
-  </si>
-  <si>
-    <t>1685427348</t>
-  </si>
-  <si>
-    <t>1685427442</t>
-  </si>
-  <si>
-    <t>1685427538</t>
-  </si>
-  <si>
-    <t>1685427633</t>
-  </si>
-  <si>
-    <t>1685427728</t>
-  </si>
-  <si>
-    <t>1685427822</t>
-  </si>
-  <si>
-    <t>1685427918</t>
-  </si>
-  <si>
-    <t>1685428014</t>
-  </si>
-  <si>
-    <t>1685428109</t>
-  </si>
-  <si>
-    <t>1685428204</t>
-  </si>
-  <si>
-    <t>1685428299</t>
-  </si>
-  <si>
-    <t>1685428395</t>
-  </si>
-  <si>
-    <t>1685428490</t>
-  </si>
-  <si>
-    <t>1685428587</t>
-  </si>
-  <si>
-    <t>1685428683</t>
-  </si>
-  <si>
-    <t>1685428779</t>
-  </si>
-  <si>
-    <t>1685429474</t>
-  </si>
-  <si>
-    <t>1685429569</t>
-  </si>
-  <si>
-    <t>1685429663</t>
-  </si>
-  <si>
-    <t>1685429762</t>
-  </si>
-  <si>
-    <t>GET /node</t>
+    <t>2023-07-02 23:43:28 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-02 23:45:01 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-02 23:46:35 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-02 23:48:08 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-02 23:49:41 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-02 23:51:14 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-02 23:52:47 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-02 23:54:20 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-02 23:55:53 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-02 23:57:26 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-02 23:58:59 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:00:32 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:02:05 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:03:38 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:05:11 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:16:44 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:18:17 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:19:50 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:21:23 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:22:57 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:24:30 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:26:04 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:27:38 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:39:12 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:40:46 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:42:19 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:43:52 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:45:25 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:46:58 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:48:31 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:50:04 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:51:37 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:53:10 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:54:43 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:56:16 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:57:49 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:59:22 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:00:56 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:02:30 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:04:03 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:05:37 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:07:10 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:08:43 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:10:17 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:11:50 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:13:25 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:14:58 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:16:31 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:18:04 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:19:38 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:21:11 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:22:46 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:24:21 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:25:56 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:27:35 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:29:10 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:30:45 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:32:20 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:33:55 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:35:30 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:37:05 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:38:40 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:40:15 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:41:50 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:43:26 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:45:00 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:46:35 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:48:11 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:49:46 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:51:21 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:52:56 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:54:31 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:56:06 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:57:41 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:59:15 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:00:50 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:02:24 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:03:58 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:05:32 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:07:06 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:08:40 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:10:15 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:11:49 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:13:23 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:14:57 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:16:31 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:18:05 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:19:40 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:21:15 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:22:49 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:24:23 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:25:57 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:27:31 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:29:06 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:30:40 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:32:15 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:33:50 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:35:24 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:36:58 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:38:32 WIB</t>
+  </si>
+  <si>
+    <t>1688316208</t>
+  </si>
+  <si>
+    <t>1688316301</t>
+  </si>
+  <si>
+    <t>1688316395</t>
+  </si>
+  <si>
+    <t>1688316488</t>
+  </si>
+  <si>
+    <t>1688316581</t>
+  </si>
+  <si>
+    <t>1688316674</t>
+  </si>
+  <si>
+    <t>1688316767</t>
+  </si>
+  <si>
+    <t>1688316860</t>
+  </si>
+  <si>
+    <t>1688316953</t>
+  </si>
+  <si>
+    <t>1688317046</t>
+  </si>
+  <si>
+    <t>1688317139</t>
+  </si>
+  <si>
+    <t>1688317232</t>
+  </si>
+  <si>
+    <t>1688317325</t>
+  </si>
+  <si>
+    <t>1688317418</t>
+  </si>
+  <si>
+    <t>1688317511</t>
+  </si>
+  <si>
+    <t>1688318204</t>
+  </si>
+  <si>
+    <t>1688318297</t>
+  </si>
+  <si>
+    <t>1688318390</t>
+  </si>
+  <si>
+    <t>1688318483</t>
+  </si>
+  <si>
+    <t>1688318577</t>
+  </si>
+  <si>
+    <t>1688318670</t>
+  </si>
+  <si>
+    <t>1688318764</t>
+  </si>
+  <si>
+    <t>1688318858</t>
+  </si>
+  <si>
+    <t>1688319552</t>
+  </si>
+  <si>
+    <t>1688319646</t>
+  </si>
+  <si>
+    <t>1688319739</t>
+  </si>
+  <si>
+    <t>1688319832</t>
+  </si>
+  <si>
+    <t>1688319925</t>
+  </si>
+  <si>
+    <t>1688320018</t>
+  </si>
+  <si>
+    <t>1688320111</t>
+  </si>
+  <si>
+    <t>1688320204</t>
+  </si>
+  <si>
+    <t>1688320297</t>
+  </si>
+  <si>
+    <t>1688320390</t>
+  </si>
+  <si>
+    <t>1688320483</t>
+  </si>
+  <si>
+    <t>1688320576</t>
+  </si>
+  <si>
+    <t>1688320669</t>
+  </si>
+  <si>
+    <t>1688320762</t>
+  </si>
+  <si>
+    <t>1688320856</t>
+  </si>
+  <si>
+    <t>1688320950</t>
+  </si>
+  <si>
+    <t>1688321043</t>
+  </si>
+  <si>
+    <t>1688321137</t>
+  </si>
+  <si>
+    <t>1688321230</t>
+  </si>
+  <si>
+    <t>1688321323</t>
+  </si>
+  <si>
+    <t>1688321417</t>
+  </si>
+  <si>
+    <t>1688321510</t>
+  </si>
+  <si>
+    <t>1688321605</t>
+  </si>
+  <si>
+    <t>1688321698</t>
+  </si>
+  <si>
+    <t>1688321791</t>
+  </si>
+  <si>
+    <t>1688321884</t>
+  </si>
+  <si>
+    <t>1688321978</t>
+  </si>
+  <si>
+    <t>1688322071</t>
+  </si>
+  <si>
+    <t>1688322166</t>
+  </si>
+  <si>
+    <t>1688322261</t>
+  </si>
+  <si>
+    <t>1688322356</t>
+  </si>
+  <si>
+    <t>1688322455</t>
+  </si>
+  <si>
+    <t>1688322550</t>
+  </si>
+  <si>
+    <t>1688322645</t>
+  </si>
+  <si>
+    <t>1688322740</t>
+  </si>
+  <si>
+    <t>1688322835</t>
+  </si>
+  <si>
+    <t>1688322930</t>
+  </si>
+  <si>
+    <t>1688323025</t>
+  </si>
+  <si>
+    <t>1688323120</t>
+  </si>
+  <si>
+    <t>1688323215</t>
+  </si>
+  <si>
+    <t>1688323310</t>
+  </si>
+  <si>
+    <t>1688323406</t>
+  </si>
+  <si>
+    <t>1688323500</t>
+  </si>
+  <si>
+    <t>1688323595</t>
+  </si>
+  <si>
+    <t>1688323691</t>
+  </si>
+  <si>
+    <t>1688323786</t>
+  </si>
+  <si>
+    <t>1688323881</t>
+  </si>
+  <si>
+    <t>1688323976</t>
+  </si>
+  <si>
+    <t>1688324071</t>
+  </si>
+  <si>
+    <t>1688324166</t>
+  </si>
+  <si>
+    <t>1688324261</t>
+  </si>
+  <si>
+    <t>1688324355</t>
+  </si>
+  <si>
+    <t>1688324450</t>
+  </si>
+  <si>
+    <t>1688324544</t>
+  </si>
+  <si>
+    <t>1688324638</t>
+  </si>
+  <si>
+    <t>1688324732</t>
+  </si>
+  <si>
+    <t>1688324826</t>
+  </si>
+  <si>
+    <t>1688324920</t>
+  </si>
+  <si>
+    <t>1688325015</t>
+  </si>
+  <si>
+    <t>1688325109</t>
+  </si>
+  <si>
+    <t>1688325203</t>
+  </si>
+  <si>
+    <t>1688325297</t>
+  </si>
+  <si>
+    <t>1688325391</t>
+  </si>
+  <si>
+    <t>1688325485</t>
+  </si>
+  <si>
+    <t>1688325580</t>
+  </si>
+  <si>
+    <t>1688325675</t>
+  </si>
+  <si>
+    <t>1688325769</t>
+  </si>
+  <si>
+    <t>1688325863</t>
+  </si>
+  <si>
+    <t>1688325957</t>
+  </si>
+  <si>
+    <t>1688326051</t>
+  </si>
+  <si>
+    <t>1688326146</t>
+  </si>
+  <si>
+    <t>1688326240</t>
+  </si>
+  <si>
+    <t>1688326335</t>
+  </si>
+  <si>
+    <t>1688326430</t>
+  </si>
+  <si>
+    <t>1688326524</t>
+  </si>
+  <si>
+    <t>1688326618</t>
+  </si>
+  <si>
+    <t>1688326712</t>
+  </si>
+  <si>
+    <t>GET /node/</t>
   </si>
   <si>
     <t>GET /node/1</t>
@@ -685,7 +685,7 @@
     <t>PUT /node/1</t>
   </si>
   <si>
-    <t>POST /channel</t>
+    <t>POST /channel/</t>
   </si>
   <si>
     <t>200</t>
@@ -1067,7 +1067,7 @@
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="9" width="13.7109375" customWidth="1"/>
@@ -1160,37 +1160,37 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>66862</v>
+        <v>68443</v>
       </c>
       <c r="I2">
         <v>100</v>
       </c>
       <c r="J2">
-        <v>59.3</v>
+        <v>59.63</v>
       </c>
       <c r="K2">
-        <v>54.01</v>
+        <v>55.29</v>
       </c>
       <c r="L2">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="M2">
-        <v>1127.52</v>
+        <v>1147.79</v>
       </c>
       <c r="N2">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="O2">
-        <v>199.36</v>
+        <v>199.46</v>
       </c>
       <c r="P2">
-        <v>66862</v>
+        <v>68443</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>1.09</v>
+        <v>0.86</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1219,37 +1219,37 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>62229</v>
+        <v>68709</v>
       </c>
       <c r="I3">
         <v>100</v>
       </c>
       <c r="J3">
-        <v>59.31</v>
+        <v>59.04</v>
       </c>
       <c r="K3">
-        <v>50.27</v>
+        <v>55.5</v>
       </c>
       <c r="L3">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="M3">
-        <v>1049.22</v>
+        <v>1163.77</v>
       </c>
       <c r="N3">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O3">
-        <v>199.32</v>
+        <v>199.23</v>
       </c>
       <c r="P3">
-        <v>62229</v>
+        <v>68709</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1278,37 +1278,37 @@
         <v>3</v>
       </c>
       <c r="H4">
-        <v>64232</v>
+        <v>67246</v>
       </c>
       <c r="I4">
         <v>100</v>
       </c>
       <c r="J4">
-        <v>59.4</v>
+        <v>59.79</v>
       </c>
       <c r="K4">
-        <v>51.88</v>
+        <v>54.32</v>
       </c>
       <c r="L4">
         <v>0.18</v>
       </c>
       <c r="M4">
-        <v>1081.35</v>
+        <v>1124.7</v>
       </c>
       <c r="N4">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="O4">
         <v>199.33</v>
       </c>
       <c r="P4">
-        <v>64232</v>
+        <v>67246</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1337,37 +1337,37 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>65938</v>
+        <v>65814</v>
       </c>
       <c r="I5">
         <v>100</v>
       </c>
       <c r="J5">
-        <v>59.46</v>
+        <v>59.35</v>
       </c>
       <c r="K5">
-        <v>53.26</v>
+        <v>53.16</v>
       </c>
       <c r="L5">
         <v>0.18</v>
       </c>
       <c r="M5">
-        <v>1108.95</v>
+        <v>1108.91</v>
       </c>
       <c r="N5">
         <v>0.9</v>
       </c>
       <c r="O5">
-        <v>199.37</v>
+        <v>199.33</v>
       </c>
       <c r="P5">
-        <v>65938</v>
+        <v>65814</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1.09</v>
+        <v>0.97</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1396,37 +1396,37 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>65457</v>
+        <v>67457</v>
       </c>
       <c r="I6">
         <v>100</v>
       </c>
       <c r="J6">
-        <v>59.37</v>
+        <v>59.16</v>
       </c>
       <c r="K6">
-        <v>52.87</v>
+        <v>54.49</v>
       </c>
       <c r="L6">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="M6">
-        <v>1102.53</v>
+        <v>1140.25</v>
       </c>
       <c r="N6">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="O6">
-        <v>199.27</v>
+        <v>199.3</v>
       </c>
       <c r="P6">
-        <v>65457</v>
+        <v>67457</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>1.11</v>
+        <v>0.86</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>67210</v>
+        <v>72307</v>
       </c>
       <c r="I7">
         <v>100</v>
       </c>
       <c r="J7">
-        <v>59.46</v>
+        <v>59.23</v>
       </c>
       <c r="K7">
-        <v>54.29</v>
+        <v>58.41</v>
       </c>
       <c r="L7">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="M7">
-        <v>1130.34</v>
+        <v>1220.78</v>
       </c>
       <c r="N7">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="O7">
-        <v>397.78</v>
+        <v>397.62</v>
       </c>
       <c r="P7">
-        <v>67211</v>
+        <v>72308</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1514,37 +1514,37 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>68921</v>
+        <v>66394</v>
       </c>
       <c r="I8">
         <v>100</v>
       </c>
       <c r="J8">
-        <v>59.22</v>
+        <v>59.38</v>
       </c>
       <c r="K8">
-        <v>55.67</v>
+        <v>53.63</v>
       </c>
       <c r="L8">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="M8">
-        <v>1163.81</v>
+        <v>1118.12</v>
       </c>
       <c r="N8">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="O8">
-        <v>397.99</v>
+        <v>397.38</v>
       </c>
       <c r="P8">
-        <v>68921</v>
+        <v>66394</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1.73</v>
+        <v>2.19</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1573,37 +1573,37 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>68842</v>
+        <v>67398</v>
       </c>
       <c r="I9">
         <v>100</v>
       </c>
       <c r="J9">
-        <v>59.38</v>
+        <v>59.22</v>
       </c>
       <c r="K9">
-        <v>55.61</v>
+        <v>54.44</v>
       </c>
       <c r="L9">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="M9">
-        <v>1159.35</v>
+        <v>1138.1</v>
       </c>
       <c r="N9">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O9">
-        <v>397.72</v>
+        <v>397.61</v>
       </c>
       <c r="P9">
-        <v>68842</v>
+        <v>67398</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1632,37 +1632,37 @@
         <v>4</v>
       </c>
       <c r="H10">
-        <v>68271</v>
+        <v>66437</v>
       </c>
       <c r="I10">
         <v>100</v>
       </c>
       <c r="J10">
-        <v>59.48</v>
+        <v>59.27</v>
       </c>
       <c r="K10">
-        <v>55.15</v>
+        <v>53.67</v>
       </c>
       <c r="L10">
         <v>0.35</v>
       </c>
       <c r="M10">
-        <v>1147.8</v>
+        <v>1120.92</v>
       </c>
       <c r="N10">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="O10">
-        <v>397.37</v>
+        <v>397.64</v>
       </c>
       <c r="P10">
-        <v>68271</v>
+        <v>66437</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1691,37 +1691,37 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <v>65592</v>
+        <v>68436</v>
       </c>
       <c r="I11">
         <v>100</v>
       </c>
       <c r="J11">
-        <v>59.47</v>
+        <v>59.26</v>
       </c>
       <c r="K11">
-        <v>52.98</v>
+        <v>55.28</v>
       </c>
       <c r="L11">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="M11">
-        <v>1102.94</v>
+        <v>1154.84</v>
       </c>
       <c r="N11">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="O11">
-        <v>397.93</v>
+        <v>396.98</v>
       </c>
       <c r="P11">
-        <v>65592</v>
+        <v>68436</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>1.94</v>
+        <v>2.23</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1750,37 +1750,37 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>67393</v>
+        <v>64424</v>
       </c>
       <c r="I12">
         <v>100</v>
       </c>
       <c r="J12">
-        <v>59.17</v>
+        <v>59.32</v>
       </c>
       <c r="K12">
-        <v>54.44</v>
+        <v>52.04</v>
       </c>
       <c r="L12">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="M12">
-        <v>1138.97</v>
+        <v>1086.04</v>
       </c>
       <c r="N12">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="O12">
-        <v>595.58</v>
+        <v>595.3099999999999</v>
       </c>
       <c r="P12">
-        <v>67393</v>
+        <v>64424</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>2.53</v>
+        <v>2.79</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1809,37 +1809,37 @@
         <v>2</v>
       </c>
       <c r="H13">
-        <v>68580</v>
+        <v>63252</v>
       </c>
       <c r="I13">
         <v>100</v>
       </c>
       <c r="J13">
-        <v>59.39</v>
+        <v>59.25</v>
       </c>
       <c r="K13">
-        <v>55.4</v>
+        <v>51.09</v>
       </c>
       <c r="L13">
-        <v>0.51</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M13">
-        <v>1154.74</v>
+        <v>1067.54</v>
       </c>
       <c r="N13">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="O13">
-        <v>594.4</v>
+        <v>594.71</v>
       </c>
       <c r="P13">
-        <v>68580</v>
+        <v>63252</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>2.53</v>
+        <v>2.88</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1868,37 +1868,37 @@
         <v>3</v>
       </c>
       <c r="H14">
-        <v>65927</v>
+        <v>66433</v>
       </c>
       <c r="I14">
         <v>100</v>
       </c>
       <c r="J14">
-        <v>59.13</v>
+        <v>59.18</v>
       </c>
       <c r="K14">
-        <v>53.25</v>
+        <v>53.66</v>
       </c>
       <c r="L14">
         <v>0.53</v>
       </c>
       <c r="M14">
-        <v>1114.95</v>
+        <v>1122.56</v>
       </c>
       <c r="N14">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="O14">
-        <v>594.49</v>
+        <v>594.63</v>
       </c>
       <c r="P14">
-        <v>65928</v>
+        <v>66433</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>2.89</v>
+        <v>3.4</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1927,37 +1927,37 @@
         <v>4</v>
       </c>
       <c r="H15">
-        <v>65310</v>
+        <v>64021</v>
       </c>
       <c r="I15">
         <v>100</v>
       </c>
       <c r="J15">
-        <v>59.23</v>
+        <v>59.05</v>
       </c>
       <c r="K15">
-        <v>52.75</v>
+        <v>51.71</v>
       </c>
       <c r="L15">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="M15">
-        <v>1102.65</v>
+        <v>1084.18</v>
       </c>
       <c r="N15">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O15">
-        <v>594.58</v>
+        <v>595.16</v>
       </c>
       <c r="P15">
-        <v>65310</v>
+        <v>64021</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>2.96</v>
+        <v>2.91</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1986,37 +1986,37 @@
         <v>5</v>
       </c>
       <c r="H16">
-        <v>63401</v>
+        <v>64676</v>
       </c>
       <c r="I16">
         <v>100</v>
       </c>
       <c r="J16">
-        <v>59.24</v>
+        <v>59.3</v>
       </c>
       <c r="K16">
-        <v>51.21</v>
+        <v>52.24</v>
       </c>
       <c r="L16">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="M16">
-        <v>1070.24</v>
+        <v>1090.66</v>
       </c>
       <c r="N16">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="O16">
-        <v>594.9400000000001</v>
+        <v>594.28</v>
       </c>
       <c r="P16">
-        <v>63401</v>
+        <v>64676</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>2.54</v>
+        <v>3.35</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2045,37 +2045,37 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>64559</v>
+        <v>69816</v>
       </c>
       <c r="I17">
         <v>100</v>
       </c>
       <c r="J17">
-        <v>59.36</v>
+        <v>59.15</v>
       </c>
       <c r="K17">
-        <v>52.15</v>
+        <v>56.39</v>
       </c>
       <c r="L17">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="M17">
-        <v>1087.58</v>
+        <v>1180.32</v>
       </c>
       <c r="N17">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="O17">
-        <v>791.72</v>
+        <v>792.22</v>
       </c>
       <c r="P17">
-        <v>64559</v>
+        <v>69816</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>9.880000000000001</v>
+        <v>3.72</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2104,37 +2104,37 @@
         <v>2</v>
       </c>
       <c r="H18">
-        <v>62947</v>
+        <v>71249</v>
       </c>
       <c r="I18">
         <v>100</v>
       </c>
       <c r="J18">
-        <v>59.35</v>
+        <v>59.18</v>
       </c>
       <c r="K18">
-        <v>50.85</v>
+        <v>57.55</v>
       </c>
       <c r="L18">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="M18">
-        <v>1060.61</v>
+        <v>1203.94</v>
       </c>
       <c r="N18">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="O18">
-        <v>791.76</v>
+        <v>790.95</v>
       </c>
       <c r="P18">
-        <v>62947</v>
+        <v>71249</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>2.9</v>
+        <v>3.97</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2163,37 +2163,37 @@
         <v>3</v>
       </c>
       <c r="H19">
-        <v>64586</v>
+        <v>62577</v>
       </c>
       <c r="I19">
         <v>100</v>
       </c>
       <c r="J19">
-        <v>59.4</v>
+        <v>59.75</v>
       </c>
       <c r="K19">
-        <v>52.17</v>
+        <v>50.55</v>
       </c>
       <c r="L19">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="M19">
-        <v>1087.31</v>
+        <v>1047.31</v>
       </c>
       <c r="N19">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="O19">
-        <v>790.7</v>
+        <v>791.76</v>
       </c>
       <c r="P19">
-        <v>64587</v>
+        <v>62577</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>7.36</v>
+        <v>3.49</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2222,37 +2222,37 @@
         <v>4</v>
       </c>
       <c r="H20">
-        <v>63449</v>
+        <v>62833</v>
       </c>
       <c r="I20">
         <v>100</v>
       </c>
       <c r="J20">
-        <v>59.22</v>
+        <v>59.27</v>
       </c>
       <c r="K20">
-        <v>51.25</v>
+        <v>50.75</v>
       </c>
       <c r="L20">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="M20">
-        <v>1071.41</v>
+        <v>1060.11</v>
       </c>
       <c r="N20">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="O20">
-        <v>791.66</v>
+        <v>790.85</v>
       </c>
       <c r="P20">
-        <v>63449</v>
+        <v>62834</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>3.21</v>
+        <v>3.05</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2281,37 +2281,37 @@
         <v>5</v>
       </c>
       <c r="H21">
-        <v>63706</v>
+        <v>67270</v>
       </c>
       <c r="I21">
         <v>100</v>
       </c>
       <c r="J21">
-        <v>59.41</v>
+        <v>59.98</v>
       </c>
       <c r="K21">
-        <v>51.46</v>
+        <v>54.34</v>
       </c>
       <c r="L21">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="M21">
-        <v>1072.31</v>
+        <v>1121.54</v>
       </c>
       <c r="N21">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="O21">
-        <v>790.5599999999999</v>
+        <v>791.11</v>
       </c>
       <c r="P21">
-        <v>63706</v>
+        <v>67270</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>3.11</v>
+        <v>4.32</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2340,37 +2340,37 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>63609</v>
+        <v>64028</v>
       </c>
       <c r="I22">
         <v>100</v>
       </c>
       <c r="J22">
-        <v>59.26</v>
+        <v>59.32</v>
       </c>
       <c r="K22">
-        <v>51.38</v>
+        <v>51.72</v>
       </c>
       <c r="L22">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="M22">
-        <v>1073.39</v>
+        <v>1079.37</v>
       </c>
       <c r="N22">
         <v>0.87</v>
       </c>
       <c r="O22">
-        <v>984.96</v>
+        <v>985.8200000000001</v>
       </c>
       <c r="P22">
-        <v>63609</v>
+        <v>64028</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>3.56</v>
+        <v>3.9</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2399,37 +2399,37 @@
         <v>2</v>
       </c>
       <c r="H23">
-        <v>72564</v>
+        <v>62229</v>
       </c>
       <c r="I23">
         <v>100</v>
       </c>
       <c r="J23">
-        <v>59.17</v>
+        <v>60.23</v>
       </c>
       <c r="K23">
-        <v>58.62</v>
+        <v>50.27</v>
       </c>
       <c r="L23">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="M23">
-        <v>1226.36</v>
+        <v>1033.19</v>
       </c>
       <c r="N23">
-        <v>0.99</v>
+        <v>0.83</v>
       </c>
       <c r="O23">
-        <v>988.17</v>
+        <v>980.48</v>
       </c>
       <c r="P23">
-        <v>72565</v>
+        <v>62229</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>3.06</v>
+        <v>3.46</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2458,37 +2458,37 @@
         <v>3</v>
       </c>
       <c r="H24">
-        <v>61999</v>
+        <v>61260</v>
       </c>
       <c r="I24">
         <v>100</v>
       </c>
       <c r="J24">
-        <v>59.42</v>
+        <v>59.98</v>
       </c>
       <c r="K24">
-        <v>50.08</v>
+        <v>48.16</v>
       </c>
       <c r="L24">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="M24">
-        <v>1043.4</v>
+        <v>1021.34</v>
       </c>
       <c r="N24">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="O24">
-        <v>983.29</v>
+        <v>986.35</v>
       </c>
       <c r="P24">
-        <v>61999</v>
+        <v>61189</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>3.98</v>
+        <v>11.68</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2517,37 +2517,37 @@
         <v>4</v>
       </c>
       <c r="H25">
-        <v>66758</v>
+        <v>69287</v>
       </c>
       <c r="I25">
         <v>100</v>
       </c>
       <c r="J25">
-        <v>60.09</v>
+        <v>60</v>
       </c>
       <c r="K25">
-        <v>53.92</v>
+        <v>55.37</v>
       </c>
       <c r="L25">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="M25">
-        <v>1110.97</v>
+        <v>1154.78</v>
       </c>
       <c r="N25">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="O25">
-        <v>986.39</v>
+        <v>988.98</v>
       </c>
       <c r="P25">
-        <v>66758</v>
+        <v>69287</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>3.64</v>
+        <v>3.94</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -2576,37 +2576,37 @@
         <v>5</v>
       </c>
       <c r="H26">
-        <v>65841</v>
+        <v>65213</v>
       </c>
       <c r="I26">
         <v>100</v>
       </c>
       <c r="J26">
-        <v>59.45</v>
+        <v>59.96</v>
       </c>
       <c r="K26">
-        <v>53.18</v>
+        <v>52.12</v>
       </c>
       <c r="L26">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="M26">
-        <v>1107.5</v>
+        <v>1087.61</v>
       </c>
       <c r="N26">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="O26">
-        <v>984</v>
+        <v>988.5599999999999</v>
       </c>
       <c r="P26">
-        <v>65841</v>
+        <v>65214</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>4.47</v>
+        <v>3.52</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -2635,37 +2635,37 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>77195</v>
+        <v>67211</v>
       </c>
       <c r="I27">
         <v>100</v>
       </c>
       <c r="J27">
-        <v>59.17</v>
+        <v>59.11</v>
       </c>
       <c r="K27">
-        <v>7.36</v>
+        <v>5.82</v>
       </c>
       <c r="L27">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="M27">
-        <v>1304.63</v>
+        <v>1137.05</v>
       </c>
       <c r="N27">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="O27">
-        <v>199.47</v>
+        <v>199.4</v>
       </c>
       <c r="P27">
-        <v>77195</v>
+        <v>67137</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0.96</v>
+        <v>3.64</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -2694,37 +2694,37 @@
         <v>2</v>
       </c>
       <c r="H28">
-        <v>65657</v>
+        <v>74139</v>
       </c>
       <c r="I28">
         <v>100</v>
       </c>
       <c r="J28">
-        <v>59.43</v>
+        <v>59.21</v>
       </c>
       <c r="K28">
-        <v>5.66</v>
+        <v>6.43</v>
       </c>
       <c r="L28">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="M28">
-        <v>1104.78</v>
+        <v>1252.14</v>
       </c>
       <c r="N28">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="O28">
-        <v>199.34</v>
+        <v>199.47</v>
       </c>
       <c r="P28">
-        <v>65612</v>
+        <v>74139</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>2.29</v>
+        <v>0.95</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -2753,37 +2753,37 @@
         <v>3</v>
       </c>
       <c r="H29">
-        <v>71292</v>
+        <v>74112</v>
       </c>
       <c r="I29">
         <v>100</v>
       </c>
       <c r="J29">
-        <v>59.46</v>
+        <v>59.32</v>
       </c>
       <c r="K29">
-        <v>6.19</v>
+        <v>6.43</v>
       </c>
       <c r="L29">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="M29">
-        <v>1198.99</v>
+        <v>1249.36</v>
       </c>
       <c r="N29">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="O29">
-        <v>199.36</v>
+        <v>199.16</v>
       </c>
       <c r="P29">
-        <v>71292</v>
+        <v>74112</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
-        <v>0.88</v>
+        <v>1.01</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -2812,37 +2812,37 @@
         <v>4</v>
       </c>
       <c r="H30">
-        <v>76184</v>
+        <v>67138</v>
       </c>
       <c r="I30">
         <v>100</v>
       </c>
       <c r="J30">
-        <v>59.4</v>
+        <v>59.28</v>
       </c>
       <c r="K30">
-        <v>6.61</v>
+        <v>5.83</v>
       </c>
       <c r="L30">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="M30">
-        <v>1282.56</v>
+        <v>1132.56</v>
       </c>
       <c r="N30">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="O30">
-        <v>199.26</v>
+        <v>199.44</v>
       </c>
       <c r="P30">
-        <v>76184</v>
+        <v>67138</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -2871,13 +2871,13 @@
         <v>5</v>
       </c>
       <c r="H31">
-        <v>68361</v>
+        <v>68374</v>
       </c>
       <c r="I31">
         <v>100</v>
       </c>
       <c r="J31">
-        <v>59.34</v>
+        <v>59.39</v>
       </c>
       <c r="K31">
         <v>5.93</v>
@@ -2886,22 +2886,22 @@
         <v>0.17</v>
       </c>
       <c r="M31">
-        <v>1152.02</v>
+        <v>1151.27</v>
       </c>
       <c r="N31">
         <v>0.1</v>
       </c>
       <c r="O31">
-        <v>199.33</v>
+        <v>199.37</v>
       </c>
       <c r="P31">
-        <v>68361</v>
+        <v>68374</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2930,37 +2930,37 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>70922</v>
+        <v>70747</v>
       </c>
       <c r="I32">
         <v>100</v>
       </c>
       <c r="J32">
-        <v>59.48</v>
+        <v>59.13</v>
       </c>
       <c r="K32">
-        <v>6.15</v>
+        <v>6.14</v>
       </c>
       <c r="L32">
         <v>0.33</v>
       </c>
       <c r="M32">
-        <v>1192.37</v>
+        <v>1196.47</v>
       </c>
       <c r="N32">
         <v>0.1</v>
       </c>
       <c r="O32">
-        <v>397.86</v>
+        <v>398.09</v>
       </c>
       <c r="P32">
-        <v>70922</v>
+        <v>70747</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>2.07</v>
+        <v>1.67</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -2989,37 +2989,37 @@
         <v>2</v>
       </c>
       <c r="H33">
-        <v>69572</v>
+        <v>76361</v>
       </c>
       <c r="I33">
         <v>100</v>
       </c>
       <c r="J33">
-        <v>59.26</v>
+        <v>59.23</v>
       </c>
       <c r="K33">
-        <v>6.04</v>
+        <v>6.63</v>
       </c>
       <c r="L33">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="M33">
-        <v>1174.01</v>
+        <v>1289.23</v>
       </c>
       <c r="N33">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="O33">
-        <v>397.34</v>
+        <v>397.6</v>
       </c>
       <c r="P33">
-        <v>69572</v>
+        <v>76362</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -3048,37 +3048,37 @@
         <v>3</v>
       </c>
       <c r="H34">
-        <v>64102</v>
+        <v>66564</v>
       </c>
       <c r="I34">
         <v>100</v>
       </c>
       <c r="J34">
-        <v>59.23</v>
+        <v>59.27</v>
       </c>
       <c r="K34">
-        <v>5.56</v>
+        <v>5.78</v>
       </c>
       <c r="L34">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="M34">
-        <v>1082.26</v>
+        <v>1123.06</v>
       </c>
       <c r="N34">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="O34">
-        <v>397.62</v>
+        <v>397.38</v>
       </c>
       <c r="P34">
-        <v>64102</v>
+        <v>66564</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -3107,37 +3107,37 @@
         <v>4</v>
       </c>
       <c r="H35">
-        <v>73767</v>
+        <v>72557</v>
       </c>
       <c r="I35">
         <v>100</v>
       </c>
       <c r="J35">
-        <v>59.43</v>
+        <v>59.28</v>
       </c>
       <c r="K35">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="L35">
         <v>0.32</v>
       </c>
       <c r="M35">
-        <v>1241.24</v>
+        <v>1223.97</v>
       </c>
       <c r="N35">
         <v>0.11</v>
       </c>
       <c r="O35">
-        <v>397.86</v>
+        <v>397.67</v>
       </c>
       <c r="P35">
-        <v>73767</v>
+        <v>72557</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -3166,37 +3166,37 @@
         <v>5</v>
       </c>
       <c r="H36">
-        <v>73361</v>
+        <v>79454</v>
       </c>
       <c r="I36">
         <v>100</v>
       </c>
       <c r="J36">
-        <v>59.42</v>
+        <v>59.32</v>
       </c>
       <c r="K36">
-        <v>6.37</v>
+        <v>6.9</v>
       </c>
       <c r="L36">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="M36">
-        <v>1234.62</v>
+        <v>1339.41</v>
       </c>
       <c r="N36">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O36">
-        <v>397.92</v>
+        <v>398.11</v>
       </c>
       <c r="P36">
-        <v>73361</v>
+        <v>79454</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36">
-        <v>2.19</v>
+        <v>1.47</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -3225,37 +3225,37 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>73955</v>
+        <v>79413</v>
       </c>
       <c r="I37">
         <v>100</v>
       </c>
       <c r="J37">
-        <v>59.39</v>
+        <v>59.2</v>
       </c>
       <c r="K37">
-        <v>6.42</v>
+        <v>6.89</v>
       </c>
       <c r="L37">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="M37">
-        <v>1245.24</v>
+        <v>1341.44</v>
       </c>
       <c r="N37">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O37">
-        <v>594.27</v>
+        <v>594.79</v>
       </c>
       <c r="P37">
-        <v>73955</v>
+        <v>79413</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37">
-        <v>2.77</v>
+        <v>2.51</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -3284,37 +3284,37 @@
         <v>2</v>
       </c>
       <c r="H38">
-        <v>64640</v>
+        <v>77879</v>
       </c>
       <c r="I38">
         <v>100</v>
       </c>
       <c r="J38">
-        <v>59.27</v>
+        <v>59.2</v>
       </c>
       <c r="K38">
-        <v>5.61</v>
+        <v>6.76</v>
       </c>
       <c r="L38">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
       <c r="M38">
-        <v>1090.6</v>
+        <v>1315.52</v>
       </c>
       <c r="N38">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="O38">
-        <v>595.33</v>
+        <v>595.25</v>
       </c>
       <c r="P38">
-        <v>64640</v>
+        <v>77879</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38">
-        <v>2.36</v>
+        <v>2.62</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -3343,37 +3343,37 @@
         <v>3</v>
       </c>
       <c r="H39">
-        <v>67875</v>
+        <v>62514</v>
       </c>
       <c r="I39">
         <v>100</v>
       </c>
       <c r="J39">
-        <v>59.3</v>
+        <v>60.03</v>
       </c>
       <c r="K39">
-        <v>5.89</v>
+        <v>5.43</v>
       </c>
       <c r="L39">
-        <v>0.52</v>
+        <v>0.57</v>
       </c>
       <c r="M39">
-        <v>1144.6</v>
+        <v>1041.38</v>
       </c>
       <c r="N39">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="O39">
-        <v>595.05</v>
+        <v>594.03</v>
       </c>
       <c r="P39">
-        <v>67875</v>
+        <v>62514</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39">
-        <v>2.66</v>
+        <v>2.83</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -3402,37 +3402,37 @@
         <v>4</v>
       </c>
       <c r="H40">
-        <v>66835</v>
+        <v>77727</v>
       </c>
       <c r="I40">
         <v>100</v>
       </c>
       <c r="J40">
-        <v>59.36</v>
+        <v>60.04</v>
       </c>
       <c r="K40">
-        <v>5.8</v>
+        <v>6.75</v>
       </c>
       <c r="L40">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="M40">
-        <v>1125.93</v>
+        <v>1294.59</v>
       </c>
       <c r="N40">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="O40">
-        <v>594.73</v>
+        <v>594.7</v>
       </c>
       <c r="P40">
-        <v>66835</v>
+        <v>77728</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40">
-        <v>2.85</v>
+        <v>2.34</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -3461,37 +3461,37 @@
         <v>5</v>
       </c>
       <c r="H41">
-        <v>64593</v>
+        <v>73776</v>
       </c>
       <c r="I41">
         <v>100</v>
       </c>
       <c r="J41">
-        <v>59.41</v>
+        <v>59.44</v>
       </c>
       <c r="K41">
-        <v>5.61</v>
+        <v>6.4</v>
       </c>
       <c r="L41">
-        <v>0.55</v>
+        <v>0.48</v>
       </c>
       <c r="M41">
-        <v>1087.24</v>
+        <v>1241.18</v>
       </c>
       <c r="N41">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="O41">
-        <v>595.12</v>
+        <v>590.04</v>
       </c>
       <c r="P41">
-        <v>64593</v>
+        <v>73776</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -3520,37 +3520,37 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>72983</v>
+        <v>71807</v>
       </c>
       <c r="I42">
         <v>100</v>
       </c>
       <c r="J42">
-        <v>59.43</v>
+        <v>59.7</v>
       </c>
       <c r="K42">
-        <v>6.33</v>
+        <v>6.23</v>
       </c>
       <c r="L42">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="M42">
-        <v>1228.05</v>
+        <v>1202.8</v>
       </c>
       <c r="N42">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="O42">
-        <v>791.04</v>
+        <v>791.1</v>
       </c>
       <c r="P42">
-        <v>72983</v>
+        <v>71807</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>2.26</v>
+        <v>3.63</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -3579,37 +3579,37 @@
         <v>2</v>
       </c>
       <c r="H43">
-        <v>66584</v>
+        <v>65349</v>
       </c>
       <c r="I43">
         <v>100</v>
       </c>
       <c r="J43">
-        <v>59.87</v>
+        <v>59.28</v>
       </c>
       <c r="K43">
-        <v>5.78</v>
+        <v>5.67</v>
       </c>
       <c r="L43">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="M43">
-        <v>1112.14</v>
+        <v>1102.38</v>
       </c>
       <c r="N43">
         <v>0.1</v>
       </c>
       <c r="O43">
-        <v>790.51</v>
+        <v>790.65</v>
       </c>
       <c r="P43">
-        <v>66586</v>
+        <v>65349</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43">
-        <v>2.64</v>
+        <v>3.62</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -3638,37 +3638,37 @@
         <v>3</v>
       </c>
       <c r="H44">
-        <v>63335</v>
+        <v>71649</v>
       </c>
       <c r="I44">
         <v>100</v>
       </c>
       <c r="J44">
-        <v>59.39</v>
+        <v>59.11</v>
       </c>
       <c r="K44">
-        <v>5.5</v>
+        <v>6.22</v>
       </c>
       <c r="L44">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="M44">
-        <v>1066.43</v>
+        <v>1212.13</v>
       </c>
       <c r="N44">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="O44">
-        <v>790.88</v>
+        <v>792</v>
       </c>
       <c r="P44">
-        <v>63335</v>
+        <v>71649</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>2.91</v>
+        <v>2.97</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -3697,37 +3697,37 @@
         <v>4</v>
       </c>
       <c r="H45">
-        <v>98193</v>
+        <v>88342</v>
       </c>
       <c r="I45">
         <v>100</v>
       </c>
       <c r="J45">
-        <v>59.29</v>
+        <v>60.14</v>
       </c>
       <c r="K45">
-        <v>8.52</v>
+        <v>7.67</v>
       </c>
       <c r="L45">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="M45">
-        <v>1656.15</v>
+        <v>1468.94</v>
       </c>
       <c r="N45">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="O45">
-        <v>790.64</v>
+        <v>789.8099999999999</v>
       </c>
       <c r="P45">
-        <v>98193</v>
+        <v>88342</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>3.57</v>
+        <v>3.23</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -3756,37 +3756,37 @@
         <v>5</v>
       </c>
       <c r="H46">
-        <v>79071</v>
+        <v>70345</v>
       </c>
       <c r="I46">
         <v>100</v>
       </c>
       <c r="J46">
-        <v>59.58</v>
+        <v>60.23</v>
       </c>
       <c r="K46">
-        <v>6.86</v>
+        <v>6.1</v>
       </c>
       <c r="L46">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="M46">
-        <v>1327.14</v>
+        <v>1167.94</v>
       </c>
       <c r="N46">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="O46">
-        <v>792.45</v>
+        <v>789.67</v>
       </c>
       <c r="P46">
-        <v>79071</v>
+        <v>70346</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>3.38</v>
+        <v>3.33</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -3815,37 +3815,37 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>91240</v>
+        <v>70187</v>
       </c>
       <c r="I47">
         <v>100</v>
       </c>
       <c r="J47">
-        <v>59.78</v>
+        <v>60.16</v>
       </c>
       <c r="K47">
-        <v>7.92</v>
+        <v>6.09</v>
       </c>
       <c r="L47">
-        <v>0.65</v>
+        <v>0.84</v>
       </c>
       <c r="M47">
-        <v>1526.26</v>
+        <v>1166.67</v>
       </c>
       <c r="N47">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="O47">
-        <v>985.72</v>
+        <v>984.15</v>
       </c>
       <c r="P47">
-        <v>91240</v>
+        <v>70188</v>
       </c>
       <c r="Q47">
         <v>0</v>
       </c>
       <c r="R47">
-        <v>5.21</v>
+        <v>3.83</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -3874,37 +3874,37 @@
         <v>2</v>
       </c>
       <c r="H48">
-        <v>65137</v>
+        <v>63954</v>
       </c>
       <c r="I48">
         <v>100</v>
       </c>
       <c r="J48">
-        <v>59.46</v>
+        <v>59.18</v>
       </c>
       <c r="K48">
-        <v>5.65</v>
+        <v>5.55</v>
       </c>
       <c r="L48">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="M48">
-        <v>1095.48</v>
+        <v>1080.67</v>
       </c>
       <c r="N48">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="O48">
-        <v>980.6799999999999</v>
+        <v>986.13</v>
       </c>
       <c r="P48">
-        <v>65137</v>
+        <v>63954</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48">
-        <v>10.75</v>
+        <v>3.84</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -3933,37 +3933,37 @@
         <v>3</v>
       </c>
       <c r="H49">
-        <v>65052</v>
+        <v>69484</v>
       </c>
       <c r="I49">
         <v>100</v>
       </c>
       <c r="J49">
-        <v>60.15</v>
+        <v>59.23</v>
       </c>
       <c r="K49">
-        <v>5.65</v>
+        <v>6.03</v>
       </c>
       <c r="L49">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="M49">
-        <v>1081.5</v>
+        <v>1173.12</v>
       </c>
       <c r="N49">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="O49">
-        <v>985.23</v>
+        <v>986.59</v>
       </c>
       <c r="P49">
-        <v>65052</v>
+        <v>69484</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49">
-        <v>3.45</v>
+        <v>4.21</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -3992,37 +3992,37 @@
         <v>4</v>
       </c>
       <c r="H50">
-        <v>81044</v>
+        <v>79601</v>
       </c>
       <c r="I50">
         <v>100</v>
       </c>
       <c r="J50">
-        <v>59.26</v>
+        <v>59.24</v>
       </c>
       <c r="K50">
-        <v>7.03</v>
+        <v>6.91</v>
       </c>
       <c r="L50">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="M50">
-        <v>1367.6</v>
+        <v>1343.7</v>
       </c>
       <c r="N50">
         <v>0.12</v>
       </c>
       <c r="O50">
-        <v>986.86</v>
+        <v>983.8200000000001</v>
       </c>
       <c r="P50">
-        <v>81045</v>
+        <v>79601</v>
       </c>
       <c r="Q50">
         <v>0</v>
       </c>
       <c r="R50">
-        <v>3.56</v>
+        <v>3.64</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -4051,37 +4051,37 @@
         <v>5</v>
       </c>
       <c r="H51">
-        <v>76983</v>
+        <v>79627</v>
       </c>
       <c r="I51">
         <v>100</v>
       </c>
       <c r="J51">
-        <v>59.57</v>
+        <v>59.95</v>
       </c>
       <c r="K51">
-        <v>6.68</v>
+        <v>6.91</v>
       </c>
       <c r="L51">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="M51">
-        <v>1292.31</v>
+        <v>1328.22</v>
       </c>
       <c r="N51">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O51">
-        <v>987.1799999999999</v>
+        <v>987.42</v>
       </c>
       <c r="P51">
-        <v>76983</v>
+        <v>79627</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51">
-        <v>3.72</v>
+        <v>4.31</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -4110,37 +4110,37 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>74364</v>
+        <v>45972</v>
       </c>
       <c r="I52">
         <v>100</v>
       </c>
       <c r="J52">
-        <v>59.81</v>
+        <v>59.14</v>
       </c>
       <c r="K52">
-        <v>2.98</v>
+        <v>1.84</v>
       </c>
       <c r="L52">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="M52">
-        <v>1243.34</v>
+        <v>777.34</v>
       </c>
       <c r="N52">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="O52">
-        <v>199.34</v>
+        <v>199.3</v>
       </c>
       <c r="P52">
-        <v>74364</v>
+        <v>45972</v>
       </c>
       <c r="Q52">
         <v>0</v>
       </c>
       <c r="R52">
-        <v>1.53</v>
+        <v>1.96</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -4169,40 +4169,40 @@
         <v>2</v>
       </c>
       <c r="H53">
-        <v>61253</v>
+        <v>47677</v>
       </c>
       <c r="I53">
         <v>100</v>
       </c>
       <c r="J53">
-        <v>59.14</v>
+        <v>59.77</v>
       </c>
       <c r="K53">
-        <v>2.45</v>
+        <v>1.91</v>
       </c>
       <c r="L53">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="M53">
-        <v>1035.73</v>
+        <v>797.67</v>
       </c>
       <c r="N53">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O53">
         <v>199.43</v>
       </c>
       <c r="P53">
-        <v>61253</v>
+        <v>47677</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>2.07</v>
+        <v>0.92</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -4228,40 +4228,40 @@
         <v>3</v>
       </c>
       <c r="H54">
-        <v>75452</v>
+        <v>47255</v>
       </c>
       <c r="I54">
         <v>100</v>
       </c>
       <c r="J54">
-        <v>59.2</v>
+        <v>59.71</v>
       </c>
       <c r="K54">
-        <v>3.02</v>
+        <v>1.89</v>
       </c>
       <c r="L54">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="M54">
-        <v>1274.53</v>
+        <v>791.41</v>
       </c>
       <c r="N54">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="O54">
-        <v>198.67</v>
+        <v>199.27</v>
       </c>
       <c r="P54">
-        <v>75452</v>
+        <v>47255</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>3.34</v>
+        <v>1.33</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -4287,37 +4287,37 @@
         <v>4</v>
       </c>
       <c r="H55">
-        <v>64418</v>
+        <v>45604</v>
       </c>
       <c r="I55">
         <v>100</v>
       </c>
       <c r="J55">
-        <v>59.42</v>
+        <v>59.32</v>
       </c>
       <c r="K55">
-        <v>2.58</v>
+        <v>1.83</v>
       </c>
       <c r="L55">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="M55">
-        <v>1084.11</v>
+        <v>768.78</v>
       </c>
       <c r="N55">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O55">
-        <v>198.65</v>
+        <v>199.39</v>
       </c>
       <c r="P55">
-        <v>64418</v>
+        <v>45604</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
-        <v>4.11</v>
+        <v>1.04</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -4346,40 +4346,40 @@
         <v>5</v>
       </c>
       <c r="H56">
-        <v>76664</v>
+        <v>46850</v>
       </c>
       <c r="I56">
         <v>100</v>
       </c>
       <c r="J56">
-        <v>59.03</v>
+        <v>59.72</v>
       </c>
       <c r="K56">
-        <v>3.07</v>
+        <v>1.88</v>
       </c>
       <c r="L56">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="M56">
-        <v>1298.73</v>
+        <v>784.49</v>
       </c>
       <c r="N56">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="O56">
-        <v>199.36</v>
+        <v>199.4</v>
       </c>
       <c r="P56">
-        <v>76664</v>
+        <v>46850</v>
       </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56">
-        <v>4.17</v>
+        <v>1.13</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -4405,40 +4405,40 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>85625</v>
+        <v>47266</v>
       </c>
       <c r="I57">
         <v>100</v>
       </c>
       <c r="J57">
-        <v>59.37</v>
+        <v>59.41</v>
       </c>
       <c r="K57">
-        <v>3.43</v>
+        <v>1.89</v>
       </c>
       <c r="L57">
-        <v>0.28</v>
+        <v>0.5</v>
       </c>
       <c r="M57">
-        <v>1442.23</v>
+        <v>795.59</v>
       </c>
       <c r="N57">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O57">
-        <v>397.34</v>
+        <v>397.82</v>
       </c>
       <c r="P57">
-        <v>85625</v>
+        <v>47267</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
-        <v>6.49</v>
+        <v>2.07</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -4464,37 +4464,37 @@
         <v>2</v>
       </c>
       <c r="H58">
-        <v>60099</v>
+        <v>46297</v>
       </c>
       <c r="I58">
-        <v>99.92</v>
+        <v>100</v>
       </c>
       <c r="J58">
-        <v>59.28</v>
+        <v>59.4</v>
       </c>
       <c r="K58">
-        <v>2.41</v>
+        <v>1.85</v>
       </c>
       <c r="L58">
-        <v>0.38</v>
+        <v>0.51</v>
       </c>
       <c r="M58">
-        <v>1013.82</v>
+        <v>779.41</v>
       </c>
       <c r="N58">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O58">
-        <v>381.16</v>
+        <v>396.96</v>
       </c>
       <c r="P58">
-        <v>60099</v>
+        <v>46297</v>
       </c>
       <c r="Q58">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>20.63</v>
+        <v>1.99</v>
       </c>
       <c r="S58">
         <v>0</v>
@@ -4523,37 +4523,37 @@
         <v>3</v>
       </c>
       <c r="H59">
-        <v>79541</v>
+        <v>46585</v>
       </c>
       <c r="I59">
         <v>100</v>
       </c>
       <c r="J59">
-        <v>59.73</v>
+        <v>59.54</v>
       </c>
       <c r="K59">
-        <v>3.19</v>
+        <v>1.87</v>
       </c>
       <c r="L59">
-        <v>0.27</v>
+        <v>0.51</v>
       </c>
       <c r="M59">
-        <v>1331.68</v>
+        <v>782.42</v>
       </c>
       <c r="N59">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="O59">
-        <v>357.38</v>
+        <v>396.49</v>
       </c>
       <c r="P59">
-        <v>79541</v>
+        <v>46586</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
-        <v>7.37</v>
+        <v>1.87</v>
       </c>
       <c r="S59">
         <v>0</v>
@@ -4582,40 +4582,40 @@
         <v>4</v>
       </c>
       <c r="H60">
-        <v>43330</v>
+        <v>45409</v>
       </c>
       <c r="I60">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="J60">
-        <v>59.74</v>
+        <v>59.71</v>
       </c>
       <c r="K60">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="L60">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="M60">
-        <v>725.3099999999999</v>
+        <v>760.49</v>
       </c>
       <c r="N60">
         <v>0.03</v>
       </c>
       <c r="O60">
-        <v>368.87</v>
+        <v>395.91</v>
       </c>
       <c r="P60">
-        <v>43330</v>
+        <v>45409</v>
       </c>
       <c r="Q60">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>11.48</v>
+        <v>2.1</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4641,40 +4641,40 @@
         <v>5</v>
       </c>
       <c r="H61">
-        <v>72261</v>
+        <v>45014</v>
       </c>
       <c r="I61">
         <v>100</v>
       </c>
       <c r="J61">
-        <v>59.59</v>
+        <v>59.13</v>
       </c>
       <c r="K61">
-        <v>2.89</v>
+        <v>1.8</v>
       </c>
       <c r="L61">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
       <c r="M61">
-        <v>1212.64</v>
+        <v>761.27</v>
       </c>
       <c r="N61">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="O61">
-        <v>397.85</v>
+        <v>397.61</v>
       </c>
       <c r="P61">
-        <v>72261</v>
+        <v>45014</v>
       </c>
       <c r="Q61">
         <v>0</v>
       </c>
       <c r="R61">
-        <v>3.89</v>
+        <v>2.27</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4700,40 +4700,40 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>61183</v>
+        <v>47772</v>
       </c>
       <c r="I62">
         <v>100</v>
       </c>
       <c r="J62">
-        <v>59.16</v>
+        <v>59.63</v>
       </c>
       <c r="K62">
-        <v>2.45</v>
+        <v>1.91</v>
       </c>
       <c r="L62">
-        <v>0.58</v>
+        <v>0.74</v>
       </c>
       <c r="M62">
-        <v>1034.2</v>
+        <v>801.14</v>
       </c>
       <c r="N62">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O62">
-        <v>595.1900000000001</v>
+        <v>594.05</v>
       </c>
       <c r="P62">
-        <v>61183</v>
+        <v>47772</v>
       </c>
       <c r="Q62">
         <v>0</v>
       </c>
       <c r="R62">
-        <v>9.359999999999999</v>
+        <v>2.51</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4759,40 +4759,40 @@
         <v>2</v>
       </c>
       <c r="H63">
-        <v>69960</v>
+        <v>46501</v>
       </c>
       <c r="I63">
         <v>100</v>
       </c>
       <c r="J63">
-        <v>60.05</v>
+        <v>59.17</v>
       </c>
       <c r="K63">
-        <v>2.8</v>
+        <v>1.86</v>
       </c>
       <c r="L63">
-        <v>0.51</v>
+        <v>0.75</v>
       </c>
       <c r="M63">
-        <v>1165.03</v>
+        <v>785.89</v>
       </c>
       <c r="N63">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="O63">
-        <v>592.59</v>
+        <v>592.16</v>
       </c>
       <c r="P63">
-        <v>69960</v>
+        <v>46502</v>
       </c>
       <c r="Q63">
         <v>0</v>
       </c>
       <c r="R63">
-        <v>10.29</v>
+        <v>2.83</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -4818,40 +4818,40 @@
         <v>3</v>
       </c>
       <c r="H64">
-        <v>76815</v>
+        <v>46735</v>
       </c>
       <c r="I64">
         <v>100</v>
       </c>
       <c r="J64">
-        <v>59.95</v>
+        <v>59.76</v>
       </c>
       <c r="K64">
-        <v>3.08</v>
+        <v>1.87</v>
       </c>
       <c r="L64">
-        <v>0.46</v>
+        <v>0.76</v>
       </c>
       <c r="M64">
-        <v>1281.32</v>
+        <v>782.04</v>
       </c>
       <c r="N64">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="O64">
-        <v>594.45</v>
+        <v>593.54</v>
       </c>
       <c r="P64">
-        <v>76815</v>
+        <v>46735</v>
       </c>
       <c r="Q64">
         <v>0</v>
       </c>
       <c r="R64">
-        <v>6.57</v>
+        <v>3.3</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -4877,40 +4877,40 @@
         <v>4</v>
       </c>
       <c r="H65">
-        <v>70226</v>
+        <v>45166</v>
       </c>
       <c r="I65">
         <v>100</v>
       </c>
       <c r="J65">
-        <v>59.1</v>
+        <v>59.14</v>
       </c>
       <c r="K65">
-        <v>2.81</v>
+        <v>1.81</v>
       </c>
       <c r="L65">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="M65">
-        <v>1188.26</v>
+        <v>763.71</v>
       </c>
       <c r="N65">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="O65">
-        <v>595.28</v>
+        <v>594.9400000000001</v>
       </c>
       <c r="P65">
-        <v>70226</v>
+        <v>45166</v>
       </c>
       <c r="Q65">
         <v>0</v>
       </c>
       <c r="R65">
-        <v>5.09</v>
+        <v>3.41</v>
       </c>
       <c r="S65">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -4936,37 +4936,37 @@
         <v>5</v>
       </c>
       <c r="H66">
-        <v>89054</v>
+        <v>46441</v>
       </c>
       <c r="I66">
         <v>100</v>
       </c>
       <c r="J66">
-        <v>59.66</v>
+        <v>59.96</v>
       </c>
       <c r="K66">
-        <v>3.57</v>
+        <v>1.86</v>
       </c>
       <c r="L66">
-        <v>0.4</v>
+        <v>0.76</v>
       </c>
       <c r="M66">
-        <v>1492.69</v>
+        <v>774.53</v>
       </c>
       <c r="N66">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O66">
-        <v>593.4400000000001</v>
+        <v>591.3200000000001</v>
       </c>
       <c r="P66">
-        <v>89054</v>
+        <v>46441</v>
       </c>
       <c r="Q66">
         <v>0</v>
       </c>
       <c r="R66">
-        <v>7.18</v>
+        <v>3.16</v>
       </c>
       <c r="S66">
         <v>0</v>
@@ -4995,37 +4995,37 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>76725</v>
+        <v>45909</v>
       </c>
       <c r="I67">
         <v>100</v>
       </c>
       <c r="J67">
-        <v>59.47</v>
+        <v>59.5</v>
       </c>
       <c r="K67">
-        <v>3.07</v>
+        <v>1.84</v>
       </c>
       <c r="L67">
-        <v>0.61</v>
+        <v>1.03</v>
       </c>
       <c r="M67">
-        <v>1290.15</v>
+        <v>771.58</v>
       </c>
       <c r="N67">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="O67">
-        <v>790.38</v>
+        <v>791.84</v>
       </c>
       <c r="P67">
-        <v>76725</v>
+        <v>45910</v>
       </c>
       <c r="Q67">
         <v>0</v>
       </c>
       <c r="R67">
-        <v>6.93</v>
+        <v>3.78</v>
       </c>
       <c r="S67">
         <v>0</v>
@@ -5054,40 +5054,40 @@
         <v>2</v>
       </c>
       <c r="H68">
-        <v>79546</v>
+        <v>47624</v>
       </c>
       <c r="I68">
         <v>100</v>
       </c>
       <c r="J68">
-        <v>59.41</v>
+        <v>60.04</v>
       </c>
       <c r="K68">
-        <v>3.19</v>
+        <v>1.91</v>
       </c>
       <c r="L68">
-        <v>0.59</v>
+        <v>1</v>
       </c>
       <c r="M68">
-        <v>1338.93</v>
+        <v>793.2</v>
       </c>
       <c r="N68">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="O68">
-        <v>791.73</v>
+        <v>791.1799999999999</v>
       </c>
       <c r="P68">
-        <v>79547</v>
+        <v>47625</v>
       </c>
       <c r="Q68">
         <v>0</v>
       </c>
       <c r="R68">
-        <v>7.96</v>
+        <v>3.88</v>
       </c>
       <c r="S68">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -5113,40 +5113,40 @@
         <v>3</v>
       </c>
       <c r="H69">
-        <v>84620</v>
+        <v>49682</v>
       </c>
       <c r="I69">
         <v>100</v>
       </c>
       <c r="J69">
-        <v>60.13</v>
+        <v>59.73</v>
       </c>
       <c r="K69">
-        <v>3.39</v>
+        <v>1.99</v>
       </c>
       <c r="L69">
-        <v>0.5600000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="M69">
-        <v>1407.28</v>
+        <v>831.78</v>
       </c>
       <c r="N69">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O69">
-        <v>790.9299999999999</v>
+        <v>788.35</v>
       </c>
       <c r="P69">
-        <v>84620</v>
+        <v>49682</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69">
-        <v>3.77</v>
+        <v>3.7</v>
       </c>
       <c r="S69">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -5172,40 +5172,40 @@
         <v>4</v>
       </c>
       <c r="H70">
-        <v>68487</v>
+        <v>45549</v>
       </c>
       <c r="I70">
         <v>100</v>
       </c>
       <c r="J70">
-        <v>59.14</v>
+        <v>59.95</v>
       </c>
       <c r="K70">
-        <v>2.74</v>
+        <v>1.82</v>
       </c>
       <c r="L70">
-        <v>0.68</v>
+        <v>1.04</v>
       </c>
       <c r="M70">
-        <v>1158.05</v>
+        <v>759.78</v>
       </c>
       <c r="N70">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="O70">
-        <v>790.78</v>
+        <v>792.6900000000001</v>
       </c>
       <c r="P70">
-        <v>68487</v>
+        <v>45549</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70">
-        <v>4.14</v>
+        <v>4.09</v>
       </c>
       <c r="S70">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -5231,37 +5231,37 @@
         <v>5</v>
       </c>
       <c r="H71">
-        <v>66250</v>
+        <v>46535</v>
       </c>
       <c r="I71">
         <v>100</v>
       </c>
       <c r="J71">
-        <v>59.53</v>
+        <v>59.07</v>
       </c>
       <c r="K71">
-        <v>2.65</v>
+        <v>1.86</v>
       </c>
       <c r="L71">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="M71">
-        <v>1112.88</v>
+        <v>787.79</v>
       </c>
       <c r="N71">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O71">
-        <v>789.55</v>
+        <v>787.86</v>
       </c>
       <c r="P71">
-        <v>66250</v>
+        <v>46535</v>
       </c>
       <c r="Q71">
         <v>0</v>
       </c>
       <c r="R71">
-        <v>4.8</v>
+        <v>3.82</v>
       </c>
       <c r="S71">
         <v>0</v>
@@ -5290,40 +5290,40 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>76656</v>
+        <v>46963</v>
       </c>
       <c r="I72">
         <v>100</v>
       </c>
       <c r="J72">
-        <v>59.62</v>
+        <v>59.96</v>
       </c>
       <c r="K72">
-        <v>3.07</v>
+        <v>1.88</v>
       </c>
       <c r="L72">
-        <v>0.77</v>
+        <v>1.26</v>
       </c>
       <c r="M72">
-        <v>1285.74</v>
+        <v>783.24</v>
       </c>
       <c r="N72">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="O72">
-        <v>988.0700000000001</v>
+        <v>985.53</v>
       </c>
       <c r="P72">
-        <v>76657</v>
+        <v>46963</v>
       </c>
       <c r="Q72">
         <v>0</v>
       </c>
       <c r="R72">
-        <v>6.05</v>
+        <v>5.49</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -5349,37 +5349,37 @@
         <v>2</v>
       </c>
       <c r="H73">
-        <v>63120</v>
+        <v>46786</v>
       </c>
       <c r="I73">
         <v>100</v>
       </c>
       <c r="J73">
-        <v>59.83</v>
+        <v>60.13</v>
       </c>
       <c r="K73">
-        <v>2.53</v>
+        <v>1.87</v>
       </c>
       <c r="L73">
-        <v>0.93</v>
+        <v>1.26</v>
       </c>
       <c r="M73">
-        <v>1054.99</v>
+        <v>778.08</v>
       </c>
       <c r="N73">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O73">
-        <v>985.87</v>
+        <v>982.97</v>
       </c>
       <c r="P73">
-        <v>63120</v>
+        <v>46786</v>
       </c>
       <c r="Q73">
         <v>0</v>
       </c>
       <c r="R73">
-        <v>6.15</v>
+        <v>6.1</v>
       </c>
       <c r="S73">
         <v>0</v>
@@ -5408,37 +5408,37 @@
         <v>3</v>
       </c>
       <c r="H74">
-        <v>77896</v>
+        <v>47096</v>
       </c>
       <c r="I74">
         <v>100</v>
       </c>
       <c r="J74">
-        <v>59.9</v>
+        <v>59.71</v>
       </c>
       <c r="K74">
-        <v>3.12</v>
+        <v>1.89</v>
       </c>
       <c r="L74">
-        <v>0.76</v>
+        <v>1.25</v>
       </c>
       <c r="M74">
-        <v>1300.43</v>
+        <v>788.75</v>
       </c>
       <c r="N74">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="O74">
-        <v>983.17</v>
+        <v>986.5599999999999</v>
       </c>
       <c r="P74">
-        <v>77896</v>
+        <v>47096</v>
       </c>
       <c r="Q74">
         <v>0</v>
       </c>
       <c r="R74">
-        <v>7.44</v>
+        <v>5.25</v>
       </c>
       <c r="S74">
         <v>0</v>
@@ -5467,37 +5467,37 @@
         <v>4</v>
       </c>
       <c r="H75">
-        <v>50905</v>
+        <v>48101</v>
       </c>
       <c r="I75">
-        <v>98.41</v>
+        <v>100</v>
       </c>
       <c r="J75">
-        <v>59.68</v>
+        <v>59.96</v>
       </c>
       <c r="K75">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="L75">
-        <v>0.71</v>
+        <v>1.24</v>
       </c>
       <c r="M75">
-        <v>852.97</v>
+        <v>802.22</v>
       </c>
       <c r="N75">
         <v>0.03</v>
       </c>
       <c r="O75">
-        <v>609.48</v>
+        <v>990.77</v>
       </c>
       <c r="P75">
-        <v>50906</v>
+        <v>48101</v>
       </c>
       <c r="Q75">
-        <v>822</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>14.93</v>
+        <v>5.44</v>
       </c>
       <c r="S75">
         <v>0</v>
@@ -5526,37 +5526,37 @@
         <v>5</v>
       </c>
       <c r="H76">
-        <v>71512</v>
+        <v>43705</v>
       </c>
       <c r="I76">
         <v>100</v>
       </c>
       <c r="J76">
-        <v>60.12</v>
+        <v>59.31</v>
       </c>
       <c r="K76">
-        <v>2.86</v>
+        <v>1.75</v>
       </c>
       <c r="L76">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="M76">
-        <v>1189.49</v>
+        <v>736.89</v>
       </c>
       <c r="N76">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="O76">
-        <v>985.83</v>
+        <v>981.7</v>
       </c>
       <c r="P76">
-        <v>71512</v>
+        <v>43705</v>
       </c>
       <c r="Q76">
         <v>0</v>
       </c>
       <c r="R76">
-        <v>4.33</v>
+        <v>7.49</v>
       </c>
       <c r="S76">
         <v>0</v>
@@ -5585,40 +5585,40 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>70756</v>
+        <v>45133</v>
       </c>
       <c r="I77">
         <v>100</v>
       </c>
       <c r="J77">
-        <v>59.58</v>
+        <v>59.14</v>
       </c>
       <c r="K77">
-        <v>2.56</v>
+        <v>4.13</v>
       </c>
       <c r="L77">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="M77">
-        <v>1187.58</v>
+        <v>763.16</v>
       </c>
       <c r="N77">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O77">
-        <v>199.38</v>
+        <v>199.46</v>
       </c>
       <c r="P77">
-        <v>70756</v>
+        <v>45133</v>
       </c>
       <c r="Q77">
         <v>0</v>
       </c>
       <c r="R77">
-        <v>2.21</v>
+        <v>3.69</v>
       </c>
       <c r="S77">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -5644,37 +5644,37 @@
         <v>2</v>
       </c>
       <c r="H78">
-        <v>77081</v>
+        <v>46349</v>
       </c>
       <c r="I78">
         <v>100</v>
       </c>
       <c r="J78">
-        <v>59.29</v>
+        <v>59.28</v>
       </c>
       <c r="K78">
-        <v>2.79</v>
+        <v>4.24</v>
       </c>
       <c r="L78">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="M78">
-        <v>1300.07</v>
+        <v>781.87</v>
       </c>
       <c r="N78">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O78">
-        <v>198.77</v>
+        <v>199.51</v>
       </c>
       <c r="P78">
-        <v>77081</v>
+        <v>46349</v>
       </c>
       <c r="Q78">
         <v>0</v>
       </c>
       <c r="R78">
-        <v>3.14</v>
+        <v>4.31</v>
       </c>
       <c r="S78">
         <v>0</v>
@@ -5703,40 +5703,40 @@
         <v>3</v>
       </c>
       <c r="H79">
-        <v>73919</v>
+        <v>48915</v>
       </c>
       <c r="I79">
         <v>100</v>
       </c>
       <c r="J79">
-        <v>60.01</v>
+        <v>59.31</v>
       </c>
       <c r="K79">
-        <v>2.68</v>
+        <v>4.48</v>
       </c>
       <c r="L79">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="M79">
-        <v>1231.78</v>
+        <v>824.73</v>
       </c>
       <c r="N79">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O79">
-        <v>199.31</v>
+        <v>197.05</v>
       </c>
       <c r="P79">
-        <v>73919</v>
+        <v>48915</v>
       </c>
       <c r="Q79">
         <v>0</v>
       </c>
       <c r="R79">
-        <v>3.48</v>
+        <v>3.8</v>
       </c>
       <c r="S79">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -5762,37 +5762,37 @@
         <v>4</v>
       </c>
       <c r="H80">
-        <v>75436</v>
+        <v>48254</v>
       </c>
       <c r="I80">
         <v>100</v>
       </c>
       <c r="J80">
-        <v>59.58</v>
+        <v>59.25</v>
       </c>
       <c r="K80">
-        <v>2.73</v>
+        <v>4.42</v>
       </c>
       <c r="L80">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="M80">
-        <v>1266.13</v>
+        <v>814.41</v>
       </c>
       <c r="N80">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O80">
-        <v>198.61</v>
+        <v>198.68</v>
       </c>
       <c r="P80">
-        <v>75436</v>
+        <v>48255</v>
       </c>
       <c r="Q80">
         <v>0</v>
       </c>
       <c r="R80">
-        <v>4</v>
+        <v>4.23</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -5821,37 +5821,37 @@
         <v>5</v>
       </c>
       <c r="H81">
-        <v>67244</v>
+        <v>48905</v>
       </c>
       <c r="I81">
         <v>100</v>
       </c>
       <c r="J81">
-        <v>59.03</v>
+        <v>59.38</v>
       </c>
       <c r="K81">
-        <v>2.44</v>
+        <v>4.48</v>
       </c>
       <c r="L81">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="M81">
-        <v>1139.15</v>
+        <v>823.59</v>
       </c>
       <c r="N81">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O81">
-        <v>199.34</v>
+        <v>199.22</v>
       </c>
       <c r="P81">
-        <v>67244</v>
+        <v>48905</v>
       </c>
       <c r="Q81">
         <v>0</v>
       </c>
       <c r="R81">
-        <v>4.49</v>
+        <v>4.56</v>
       </c>
       <c r="S81">
         <v>0</v>
@@ -5880,40 +5880,40 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>66274</v>
+        <v>50183</v>
       </c>
       <c r="I82">
         <v>100</v>
       </c>
       <c r="J82">
-        <v>59.46</v>
+        <v>59.3</v>
       </c>
       <c r="K82">
-        <v>2.4</v>
+        <v>4.59</v>
       </c>
       <c r="L82">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="M82">
-        <v>1114.6</v>
+        <v>846.26</v>
       </c>
       <c r="N82">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O82">
-        <v>393.42</v>
+        <v>397.87</v>
       </c>
       <c r="P82">
-        <v>66274</v>
+        <v>50183</v>
       </c>
       <c r="Q82">
         <v>0</v>
       </c>
       <c r="R82">
-        <v>4.91</v>
+        <v>5.31</v>
       </c>
       <c r="S82">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -5939,37 +5939,37 @@
         <v>2</v>
       </c>
       <c r="H83">
-        <v>81178</v>
+        <v>49030</v>
       </c>
       <c r="I83">
         <v>100</v>
       </c>
       <c r="J83">
-        <v>59.13</v>
+        <v>59.24</v>
       </c>
       <c r="K83">
-        <v>2.94</v>
+        <v>4.49</v>
       </c>
       <c r="L83">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
       <c r="M83">
-        <v>1372.87</v>
+        <v>827.65</v>
       </c>
       <c r="N83">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="O83">
-        <v>397.51</v>
+        <v>398.17</v>
       </c>
       <c r="P83">
-        <v>81178</v>
+        <v>49030</v>
       </c>
       <c r="Q83">
         <v>0</v>
       </c>
       <c r="R83">
-        <v>5.7</v>
+        <v>5.06</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -5998,37 +5998,37 @@
         <v>3</v>
       </c>
       <c r="H84">
-        <v>65255</v>
+        <v>50527</v>
       </c>
       <c r="I84">
         <v>100</v>
       </c>
       <c r="J84">
-        <v>59.8</v>
+        <v>59.55</v>
       </c>
       <c r="K84">
-        <v>2.36</v>
+        <v>4.63</v>
       </c>
       <c r="L84">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
       <c r="M84">
-        <v>1091.22</v>
+        <v>848.48</v>
       </c>
       <c r="N84">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O84">
-        <v>397.79</v>
+        <v>397.74</v>
       </c>
       <c r="P84">
-        <v>65255</v>
+        <v>50527</v>
       </c>
       <c r="Q84">
         <v>0</v>
       </c>
       <c r="R84">
-        <v>6.17</v>
+        <v>5.09</v>
       </c>
       <c r="S84">
         <v>0</v>
@@ -6057,37 +6057,37 @@
         <v>4</v>
       </c>
       <c r="H85">
-        <v>73220</v>
+        <v>50448</v>
       </c>
       <c r="I85">
         <v>100</v>
       </c>
       <c r="J85">
-        <v>60</v>
+        <v>59.56</v>
       </c>
       <c r="K85">
-        <v>2.65</v>
+        <v>4.62</v>
       </c>
       <c r="L85">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="M85">
-        <v>1220.33</v>
+        <v>847.01</v>
       </c>
       <c r="N85">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O85">
-        <v>397.03</v>
+        <v>393.01</v>
       </c>
       <c r="P85">
-        <v>73220</v>
+        <v>50448</v>
       </c>
       <c r="Q85">
         <v>0</v>
       </c>
       <c r="R85">
-        <v>6.93</v>
+        <v>4.96</v>
       </c>
       <c r="S85">
         <v>0</v>
@@ -6116,37 +6116,37 @@
         <v>5</v>
       </c>
       <c r="H86">
-        <v>53798</v>
+        <v>49401</v>
       </c>
       <c r="I86">
-        <v>99.64</v>
+        <v>100</v>
       </c>
       <c r="J86">
-        <v>59.15</v>
+        <v>59.36</v>
       </c>
       <c r="K86">
-        <v>1.95</v>
+        <v>4.52</v>
       </c>
       <c r="L86">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="M86">
-        <v>909.52</v>
+        <v>832.23</v>
       </c>
       <c r="N86">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="O86">
-        <v>342.26</v>
+        <v>397.48</v>
       </c>
       <c r="P86">
-        <v>53798</v>
+        <v>49401</v>
       </c>
       <c r="Q86">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>17.54</v>
+        <v>5.14</v>
       </c>
       <c r="S86">
         <v>0</v>
@@ -6175,37 +6175,37 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>72521</v>
+        <v>47622</v>
       </c>
       <c r="I87">
         <v>100</v>
       </c>
       <c r="J87">
-        <v>59.54</v>
+        <v>59.39</v>
       </c>
       <c r="K87">
-        <v>2.63</v>
+        <v>4.36</v>
       </c>
       <c r="L87">
-        <v>0.49</v>
+        <v>0.74</v>
       </c>
       <c r="M87">
-        <v>1218.02</v>
+        <v>801.85</v>
       </c>
       <c r="N87">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O87">
-        <v>594.53</v>
+        <v>594.48</v>
       </c>
       <c r="P87">
-        <v>72521</v>
+        <v>47622</v>
       </c>
       <c r="Q87">
         <v>0</v>
       </c>
       <c r="R87">
-        <v>6.78</v>
+        <v>5.51</v>
       </c>
       <c r="S87">
         <v>0</v>
@@ -6234,40 +6234,40 @@
         <v>2</v>
       </c>
       <c r="H88">
-        <v>65381</v>
+        <v>49362</v>
       </c>
       <c r="I88">
         <v>100</v>
       </c>
       <c r="J88">
-        <v>59.21</v>
+        <v>60.05</v>
       </c>
       <c r="K88">
-        <v>2.37</v>
+        <v>4.52</v>
       </c>
       <c r="L88">
-        <v>0.54</v>
+        <v>0.72</v>
       </c>
       <c r="M88">
-        <v>1104.22</v>
+        <v>822.02</v>
       </c>
       <c r="N88">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O88">
-        <v>594.23</v>
+        <v>595.39</v>
       </c>
       <c r="P88">
-        <v>65381</v>
+        <v>49362</v>
       </c>
       <c r="Q88">
         <v>0</v>
       </c>
       <c r="R88">
-        <v>8.4</v>
+        <v>5.66</v>
       </c>
       <c r="S88">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -6293,37 +6293,37 @@
         <v>3</v>
       </c>
       <c r="H89">
-        <v>76131</v>
+        <v>50643</v>
       </c>
       <c r="I89">
         <v>100</v>
       </c>
       <c r="J89">
-        <v>59.1</v>
+        <v>59.47</v>
       </c>
       <c r="K89">
-        <v>2.76</v>
+        <v>4.64</v>
       </c>
       <c r="L89">
-        <v>0.46</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M89">
-        <v>1288.17</v>
+        <v>851.5700000000001</v>
       </c>
       <c r="N89">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="O89">
-        <v>595.71</v>
+        <v>586.29</v>
       </c>
       <c r="P89">
-        <v>76131</v>
+        <v>50643</v>
       </c>
       <c r="Q89">
         <v>0</v>
       </c>
       <c r="R89">
-        <v>7.4</v>
+        <v>6.28</v>
       </c>
       <c r="S89">
         <v>0</v>
@@ -6352,37 +6352,37 @@
         <v>4</v>
       </c>
       <c r="H90">
-        <v>74099</v>
+        <v>49817</v>
       </c>
       <c r="I90">
         <v>100</v>
       </c>
       <c r="J90">
-        <v>59.38</v>
+        <v>59.51</v>
       </c>
       <c r="K90">
-        <v>2.69</v>
+        <v>4.56</v>
       </c>
       <c r="L90">
-        <v>0.48</v>
+        <v>0.71</v>
       </c>
       <c r="M90">
-        <v>1247.88</v>
+        <v>837.12</v>
       </c>
       <c r="N90">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="O90">
-        <v>594.15</v>
+        <v>596.0700000000001</v>
       </c>
       <c r="P90">
-        <v>74099</v>
+        <v>49817</v>
       </c>
       <c r="Q90">
         <v>0</v>
       </c>
       <c r="R90">
-        <v>8.1</v>
+        <v>6.82</v>
       </c>
       <c r="S90">
         <v>0</v>
@@ -6411,40 +6411,40 @@
         <v>5</v>
       </c>
       <c r="H91">
-        <v>67715</v>
+        <v>47826</v>
       </c>
       <c r="I91">
         <v>100</v>
       </c>
       <c r="J91">
-        <v>59.58</v>
+        <v>59.55</v>
       </c>
       <c r="K91">
-        <v>2.45</v>
+        <v>4.38</v>
       </c>
       <c r="L91">
-        <v>0.52</v>
+        <v>0.72</v>
       </c>
       <c r="M91">
-        <v>1136.54</v>
+        <v>803.12</v>
       </c>
       <c r="N91">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O91">
-        <v>594.77</v>
+        <v>581.9400000000001</v>
       </c>
       <c r="P91">
-        <v>67715</v>
+        <v>47826</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>10.24</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="S91">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -6470,40 +6470,40 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>81504</v>
+        <v>50479</v>
       </c>
       <c r="I92">
         <v>100</v>
       </c>
       <c r="J92">
-        <v>60.12</v>
+        <v>59.61</v>
       </c>
       <c r="K92">
-        <v>2.95</v>
+        <v>4.62</v>
       </c>
       <c r="L92">
-        <v>0.58</v>
+        <v>0.93</v>
       </c>
       <c r="M92">
-        <v>1355.69</v>
+        <v>846.8200000000001</v>
       </c>
       <c r="N92">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="O92">
-        <v>790.97</v>
+        <v>787.54</v>
       </c>
       <c r="P92">
-        <v>81504</v>
+        <v>50479</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>10.41</v>
+        <v>6.53</v>
       </c>
       <c r="S92">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -6529,37 +6529,37 @@
         <v>2</v>
       </c>
       <c r="H93">
-        <v>63693</v>
+        <v>48776</v>
       </c>
       <c r="I93">
-        <v>99.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="J93">
-        <v>59.06</v>
+        <v>59.7</v>
       </c>
       <c r="K93">
-        <v>2.31</v>
+        <v>4.47</v>
       </c>
       <c r="L93">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="M93">
-        <v>1078.45</v>
+        <v>817.02</v>
       </c>
       <c r="N93">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O93">
-        <v>764.9400000000001</v>
+        <v>790.5599999999999</v>
       </c>
       <c r="P93">
-        <v>63693</v>
+        <v>48776</v>
       </c>
       <c r="Q93">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>18.98</v>
+        <v>7.19</v>
       </c>
       <c r="S93">
         <v>0</v>
@@ -6588,40 +6588,40 @@
         <v>3</v>
       </c>
       <c r="H94">
-        <v>43872</v>
+        <v>47826</v>
       </c>
       <c r="I94">
         <v>100</v>
       </c>
       <c r="J94">
-        <v>59.47</v>
+        <v>59.61</v>
       </c>
       <c r="K94">
-        <v>1.59</v>
+        <v>4.38</v>
       </c>
       <c r="L94">
-        <v>0.6</v>
+        <v>0.98</v>
       </c>
       <c r="M94">
-        <v>737.72</v>
+        <v>802.3200000000001</v>
       </c>
       <c r="N94">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O94">
-        <v>446.19</v>
+        <v>783.47</v>
       </c>
       <c r="P94">
-        <v>43872</v>
+        <v>47826</v>
       </c>
       <c r="Q94">
         <v>0</v>
       </c>
       <c r="R94">
-        <v>12.75</v>
+        <v>7.64</v>
       </c>
       <c r="S94">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -6647,40 +6647,40 @@
         <v>4</v>
       </c>
       <c r="H95">
-        <v>63500</v>
+        <v>50220</v>
       </c>
       <c r="I95">
         <v>100</v>
       </c>
       <c r="J95">
-        <v>59.23</v>
+        <v>59.65</v>
       </c>
       <c r="K95">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="L95">
-        <v>0.74</v>
+        <v>0.93</v>
       </c>
       <c r="M95">
-        <v>1072.09</v>
+        <v>841.91</v>
       </c>
       <c r="N95">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O95">
-        <v>789.0700000000001</v>
+        <v>787.12</v>
       </c>
       <c r="P95">
-        <v>63500</v>
+        <v>50221</v>
       </c>
       <c r="Q95">
         <v>0</v>
       </c>
       <c r="R95">
-        <v>3.27</v>
+        <v>7.38</v>
       </c>
       <c r="S95">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -6706,37 +6706,37 @@
         <v>5</v>
       </c>
       <c r="H96">
-        <v>66484</v>
+        <v>48594</v>
       </c>
       <c r="I96">
         <v>100</v>
       </c>
       <c r="J96">
-        <v>59.56</v>
+        <v>59.42</v>
       </c>
       <c r="K96">
-        <v>2.41</v>
+        <v>4.45</v>
       </c>
       <c r="L96">
-        <v>0.71</v>
+        <v>0.96</v>
       </c>
       <c r="M96">
-        <v>1116.25</v>
+        <v>817.8099999999999</v>
       </c>
       <c r="N96">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O96">
-        <v>789.77</v>
+        <v>788.48</v>
       </c>
       <c r="P96">
-        <v>66484</v>
+        <v>48594</v>
       </c>
       <c r="Q96">
         <v>0</v>
       </c>
       <c r="R96">
-        <v>3.36</v>
+        <v>9.69</v>
       </c>
       <c r="S96">
         <v>0</v>
@@ -6765,37 +6765,37 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>79496</v>
+        <v>50522</v>
       </c>
       <c r="I97">
         <v>100</v>
       </c>
       <c r="J97">
-        <v>60.02</v>
+        <v>60.28</v>
       </c>
       <c r="K97">
-        <v>2.88</v>
+        <v>4.63</v>
       </c>
       <c r="L97">
-        <v>0.74</v>
+        <v>1.18</v>
       </c>
       <c r="M97">
-        <v>1324.49</v>
+        <v>838.12</v>
       </c>
       <c r="N97">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="O97">
-        <v>985.33</v>
+        <v>986.36</v>
       </c>
       <c r="P97">
-        <v>79496</v>
+        <v>50523</v>
       </c>
       <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97">
-        <v>3.98</v>
+        <v>7.74</v>
       </c>
       <c r="S97">
         <v>0</v>
@@ -6824,37 +6824,37 @@
         <v>2</v>
       </c>
       <c r="H98">
-        <v>78049</v>
+        <v>49734</v>
       </c>
       <c r="I98">
         <v>100</v>
       </c>
       <c r="J98">
-        <v>60.02</v>
+        <v>59.8</v>
       </c>
       <c r="K98">
-        <v>2.83</v>
+        <v>4.55</v>
       </c>
       <c r="L98">
-        <v>0.76</v>
+        <v>1.18</v>
       </c>
       <c r="M98">
-        <v>1300.38</v>
+        <v>831.67</v>
       </c>
       <c r="N98">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="O98">
-        <v>984.87</v>
+        <v>985.27</v>
       </c>
       <c r="P98">
-        <v>78049</v>
+        <v>49734</v>
       </c>
       <c r="Q98">
         <v>0</v>
       </c>
       <c r="R98">
-        <v>4.64</v>
+        <v>8.41</v>
       </c>
       <c r="S98">
         <v>0</v>
@@ -6883,40 +6883,40 @@
         <v>3</v>
       </c>
       <c r="H99">
-        <v>63405</v>
+        <v>48014</v>
       </c>
       <c r="I99">
         <v>100</v>
       </c>
       <c r="J99">
-        <v>59.23</v>
+        <v>59.92</v>
       </c>
       <c r="K99">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="L99">
-        <v>0.92</v>
+        <v>1.22</v>
       </c>
       <c r="M99">
-        <v>1070.49</v>
+        <v>801.3</v>
       </c>
       <c r="N99">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O99">
-        <v>983.41</v>
+        <v>979.76</v>
       </c>
       <c r="P99">
-        <v>63405</v>
+        <v>48014</v>
       </c>
       <c r="Q99">
         <v>0</v>
       </c>
       <c r="R99">
-        <v>4.36</v>
+        <v>7.54</v>
       </c>
       <c r="S99">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -6942,37 +6942,37 @@
         <v>4</v>
       </c>
       <c r="H100">
-        <v>66281</v>
+        <v>51845</v>
       </c>
       <c r="I100">
         <v>100</v>
       </c>
       <c r="J100">
-        <v>59.2</v>
+        <v>59.63</v>
       </c>
       <c r="K100">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="L100">
-        <v>0.88</v>
+        <v>1.14</v>
       </c>
       <c r="M100">
-        <v>1119.61</v>
+        <v>869.4400000000001</v>
       </c>
       <c r="N100">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O100">
-        <v>983.36</v>
+        <v>987.3200000000001</v>
       </c>
       <c r="P100">
-        <v>66281</v>
+        <v>51845</v>
       </c>
       <c r="Q100">
         <v>0</v>
       </c>
       <c r="R100">
-        <v>3.81</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="S100">
         <v>0</v>
@@ -7001,37 +7001,37 @@
         <v>5</v>
       </c>
       <c r="H101">
-        <v>76743</v>
+        <v>50308</v>
       </c>
       <c r="I101">
         <v>100</v>
       </c>
       <c r="J101">
-        <v>60.22</v>
+        <v>60.05</v>
       </c>
       <c r="K101">
-        <v>2.78</v>
+        <v>4.61</v>
       </c>
       <c r="L101">
-        <v>0.77</v>
+        <v>1.17</v>
       </c>
       <c r="M101">
-        <v>1274.38</v>
+        <v>837.77</v>
       </c>
       <c r="N101">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="O101">
-        <v>982.66</v>
+        <v>983.4299999999999</v>
       </c>
       <c r="P101">
-        <v>76743</v>
+        <v>50308</v>
       </c>
       <c r="Q101">
         <v>0</v>
       </c>
       <c r="R101">
-        <v>4.71</v>
+        <v>10.35</v>
       </c>
       <c r="S101">
         <v>0</v>
@@ -7051,8 +7051,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
@@ -7127,37 +7126,37 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>66154.2</v>
+        <v>64403.4</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2">
-        <v>59.47799999999999</v>
+        <v>59.898</v>
       </c>
       <c r="H2">
-        <v>53.436</v>
+        <v>51.528</v>
       </c>
       <c r="I2">
-        <v>0.89</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="J2">
-        <v>1112.324</v>
+        <v>1075.258</v>
       </c>
       <c r="K2">
-        <v>0.898</v>
+        <v>0.858</v>
       </c>
       <c r="L2">
-        <v>985.3619999999999</v>
+        <v>986.0380000000001</v>
       </c>
       <c r="M2">
-        <v>66154.39999999999</v>
+        <v>64389.4</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.742</v>
+        <v>5.3</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -7173,37 +7172,37 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>64943.6</v>
+        <v>67533.8</v>
       </c>
       <c r="F3">
         <v>100</v>
       </c>
       <c r="G3">
-        <v>59.36799999999999</v>
+        <v>59.39400000000001</v>
       </c>
       <c r="H3">
-        <v>52.45800000000001</v>
+        <v>54.552</v>
       </c>
       <c r="I3">
-        <v>0.182</v>
+        <v>0.174</v>
       </c>
       <c r="J3">
-        <v>1093.914</v>
+        <v>1137.084</v>
       </c>
       <c r="K3">
-        <v>0.884</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="L3">
         <v>199.33</v>
       </c>
       <c r="M3">
-        <v>64943.6</v>
+        <v>67533.8</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.038</v>
+        <v>0.914</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -7219,37 +7218,37 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>67767.2</v>
+        <v>68194.39999999999</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4">
-        <v>59.402</v>
+        <v>59.27200000000001</v>
       </c>
       <c r="H4">
-        <v>54.73999999999999</v>
+        <v>55.086</v>
       </c>
       <c r="I4">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="J4">
-        <v>1140.848</v>
+        <v>1150.552</v>
       </c>
       <c r="K4">
-        <v>0.922</v>
+        <v>0.93</v>
       </c>
       <c r="L4">
-        <v>397.758</v>
+        <v>397.446</v>
       </c>
       <c r="M4">
-        <v>67767.39999999999</v>
+        <v>68194.60000000001</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.918</v>
+        <v>2.102</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -7265,37 +7264,37 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>66122.2</v>
+        <v>64561.2</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5">
-        <v>59.23200000000001</v>
+        <v>59.22000000000001</v>
       </c>
       <c r="H5">
-        <v>53.41</v>
+        <v>52.148</v>
       </c>
       <c r="I5">
-        <v>0.532</v>
+        <v>0.546</v>
       </c>
       <c r="J5">
-        <v>1116.31</v>
+        <v>1090.196</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.882</v>
       </c>
       <c r="L5">
-        <v>594.798</v>
+        <v>594.818</v>
       </c>
       <c r="M5">
-        <v>66122.39999999999</v>
+        <v>64561.2</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.69</v>
+        <v>3.066</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -7311,37 +7310,37 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>63849.4</v>
+        <v>66749</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6">
-        <v>59.348</v>
+        <v>59.46599999999999</v>
       </c>
       <c r="H6">
-        <v>51.576</v>
+        <v>53.916</v>
       </c>
       <c r="I6">
-        <v>0.738</v>
+        <v>0.71</v>
       </c>
       <c r="J6">
-        <v>1075.844</v>
+        <v>1122.644</v>
       </c>
       <c r="K6">
-        <v>0.8720000000000001</v>
+        <v>0.908</v>
       </c>
       <c r="L6">
-        <v>791.28</v>
+        <v>791.378</v>
       </c>
       <c r="M6">
-        <v>63849.6</v>
+        <v>66749.2</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.292</v>
+        <v>3.71</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -7359,37 +7358,37 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>75891.2</v>
+        <v>72570.60000000001</v>
       </c>
       <c r="F7">
         <v>100</v>
       </c>
       <c r="G7">
-        <v>59.64400000000001</v>
+        <v>59.552</v>
       </c>
       <c r="H7">
-        <v>6.586</v>
+        <v>6.298</v>
       </c>
       <c r="I7">
-        <v>0.788</v>
+        <v>0.8119999999999999</v>
       </c>
       <c r="J7">
-        <v>1272.63</v>
+        <v>1218.476</v>
       </c>
       <c r="K7">
-        <v>0.11</v>
+        <v>0.106</v>
       </c>
       <c r="L7">
-        <v>985.134</v>
+        <v>985.622</v>
       </c>
       <c r="M7">
-        <v>75891.39999999999</v>
+        <v>72570.8</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.338</v>
+        <v>3.966</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -7405,37 +7404,37 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>71737.8</v>
+        <v>70194.8</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
       <c r="G8">
-        <v>59.36</v>
+        <v>59.262</v>
       </c>
       <c r="H8">
-        <v>6.35</v>
+        <v>6.087999999999999</v>
       </c>
       <c r="I8">
-        <v>0.166</v>
+        <v>0.17</v>
       </c>
       <c r="J8">
-        <v>1208.596</v>
+        <v>1184.476</v>
       </c>
       <c r="K8">
-        <v>0.106</v>
+        <v>0.104</v>
       </c>
       <c r="L8">
-        <v>199.352</v>
+        <v>199.368</v>
       </c>
       <c r="M8">
-        <v>71728.8</v>
+        <v>70180</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.188</v>
+        <v>1.486</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -7451,37 +7450,37 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>70344.8</v>
+        <v>73136.60000000001</v>
       </c>
       <c r="F9">
         <v>100</v>
       </c>
       <c r="G9">
-        <v>59.364</v>
+        <v>59.246</v>
       </c>
       <c r="H9">
-        <v>6.104</v>
+        <v>6.35</v>
       </c>
       <c r="I9">
-        <v>0.336</v>
+        <v>0.322</v>
       </c>
       <c r="J9">
-        <v>1184.9</v>
+        <v>1234.428</v>
       </c>
       <c r="K9">
-        <v>0.102</v>
+        <v>0.108</v>
       </c>
       <c r="L9">
-        <v>397.72</v>
+        <v>397.77</v>
       </c>
       <c r="M9">
-        <v>70344.8</v>
+        <v>73136.8</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.938</v>
+        <v>1.716</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -7497,37 +7496,37 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>67579.60000000001</v>
+        <v>74261.8</v>
       </c>
       <c r="F10">
         <v>100</v>
       </c>
       <c r="G10">
-        <v>59.346</v>
+        <v>59.58200000000001</v>
       </c>
       <c r="H10">
-        <v>5.866</v>
+        <v>6.446</v>
       </c>
       <c r="I10">
-        <v>0.526</v>
+        <v>0.48</v>
       </c>
       <c r="J10">
-        <v>1138.722</v>
+        <v>1246.822</v>
       </c>
       <c r="K10">
-        <v>0.098</v>
+        <v>0.108</v>
       </c>
       <c r="L10">
-        <v>594.9</v>
+        <v>593.7619999999999</v>
       </c>
       <c r="M10">
-        <v>67579.60000000001</v>
+        <v>74262</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.628</v>
+        <v>2.546</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -7543,37 +7542,37 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>76033.2</v>
+        <v>73498.39999999999</v>
       </c>
       <c r="F11">
         <v>100</v>
       </c>
       <c r="G11">
-        <v>59.512</v>
+        <v>59.69199999999999</v>
       </c>
       <c r="H11">
-        <v>6.598000000000001</v>
+        <v>6.378</v>
       </c>
       <c r="I11">
-        <v>0.634</v>
+        <v>0.65</v>
       </c>
       <c r="J11">
-        <v>1277.982</v>
+        <v>1230.838</v>
       </c>
       <c r="K11">
-        <v>0.112</v>
+        <v>0.108</v>
       </c>
       <c r="L11">
-        <v>791.104</v>
+        <v>790.646</v>
       </c>
       <c r="M11">
-        <v>76033.60000000001</v>
+        <v>73498.60000000001</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.952</v>
+        <v>3.356</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -7591,40 +7590,40 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>72794.8</v>
+        <v>50084.6</v>
       </c>
       <c r="F12">
         <v>100</v>
       </c>
       <c r="G12">
-        <v>59.738</v>
+        <v>59.936</v>
       </c>
       <c r="H12">
-        <v>2.638</v>
+        <v>4.588</v>
       </c>
       <c r="I12">
-        <v>0.8140000000000001</v>
+        <v>1.178</v>
       </c>
       <c r="J12">
-        <v>1217.87</v>
+        <v>835.6600000000001</v>
       </c>
       <c r="K12">
-        <v>0.046</v>
+        <v>0.078</v>
       </c>
       <c r="L12">
-        <v>983.926</v>
+        <v>984.4280000000001</v>
       </c>
       <c r="M12">
-        <v>72794.8</v>
+        <v>50084.8</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.3</v>
+        <v>8.464</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -7637,40 +7636,40 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>72887.2</v>
+        <v>47511.2</v>
       </c>
       <c r="F13">
         <v>100</v>
       </c>
       <c r="G13">
-        <v>59.498</v>
+        <v>59.27200000000001</v>
       </c>
       <c r="H13">
-        <v>2.64</v>
+        <v>4.35</v>
       </c>
       <c r="I13">
-        <v>0.162</v>
+        <v>0.248</v>
       </c>
       <c r="J13">
-        <v>1224.942</v>
+        <v>801.552</v>
       </c>
       <c r="K13">
-        <v>0.044</v>
+        <v>0.074</v>
       </c>
       <c r="L13">
-        <v>199.082</v>
+        <v>198.784</v>
       </c>
       <c r="M13">
-        <v>72887.2</v>
+        <v>47511.4</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.464</v>
+        <v>4.118</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -7683,40 +7682,40 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>67945</v>
+        <v>49917.8</v>
       </c>
       <c r="F14">
-        <v>99.928</v>
+        <v>100</v>
       </c>
       <c r="G14">
-        <v>59.508</v>
+        <v>59.402</v>
       </c>
       <c r="H14">
-        <v>2.46</v>
+        <v>4.57</v>
       </c>
       <c r="I14">
-        <v>0.342</v>
+        <v>0.472</v>
       </c>
       <c r="J14">
-        <v>1141.708</v>
+        <v>840.326</v>
       </c>
       <c r="K14">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="L14">
-        <v>385.602</v>
+        <v>396.854</v>
       </c>
       <c r="M14">
-        <v>67945</v>
+        <v>49917.8</v>
       </c>
       <c r="N14">
-        <v>38.6</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.25</v>
+        <v>5.112</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -7729,40 +7728,40 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>71169.39999999999</v>
+        <v>49054</v>
       </c>
       <c r="F15">
         <v>100</v>
       </c>
       <c r="G15">
-        <v>59.362</v>
+        <v>59.59399999999999</v>
       </c>
       <c r="H15">
-        <v>2.58</v>
+        <v>4.492</v>
       </c>
       <c r="I15">
-        <v>0.4980000000000001</v>
+        <v>0.716</v>
       </c>
       <c r="J15">
-        <v>1198.966</v>
+        <v>823.1360000000001</v>
       </c>
       <c r="K15">
-        <v>0.044</v>
+        <v>0.076</v>
       </c>
       <c r="L15">
-        <v>594.678</v>
+        <v>590.8340000000001</v>
       </c>
       <c r="M15">
-        <v>71169.39999999999</v>
+        <v>49054</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>8.184000000000001</v>
+        <v>6.459999999999999</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -7775,40 +7774,40 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>63810.6</v>
+        <v>49179</v>
       </c>
       <c r="F16">
-        <v>99.964</v>
+        <v>100</v>
       </c>
       <c r="G16">
-        <v>59.488</v>
+        <v>59.598</v>
       </c>
       <c r="H16">
-        <v>2.312</v>
+        <v>4.504</v>
       </c>
       <c r="I16">
-        <v>0.6679999999999999</v>
+        <v>0.954</v>
       </c>
       <c r="J16">
-        <v>1072.04</v>
+        <v>825.176</v>
       </c>
       <c r="K16">
-        <v>0.04</v>
+        <v>0.074</v>
       </c>
       <c r="L16">
-        <v>716.188</v>
+        <v>787.434</v>
       </c>
       <c r="M16">
-        <v>63810.6</v>
+        <v>49179.2</v>
       </c>
       <c r="N16">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>9.754000000000001</v>
+        <v>7.686</v>
       </c>
       <c r="P16">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -7823,40 +7822,40 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>68017.8</v>
+        <v>46530.2</v>
       </c>
       <c r="F17">
-        <v>99.68199999999999</v>
+        <v>100</v>
       </c>
       <c r="G17">
-        <v>59.83</v>
+        <v>59.814</v>
       </c>
       <c r="H17">
-        <v>2.724</v>
+        <v>1.864</v>
       </c>
       <c r="I17">
-        <v>0.8</v>
+        <v>1.268</v>
       </c>
       <c r="J17">
-        <v>1136.724</v>
+        <v>777.836</v>
       </c>
       <c r="K17">
-        <v>0.044</v>
+        <v>0.03</v>
       </c>
       <c r="L17">
-        <v>910.484</v>
+        <v>985.506</v>
       </c>
       <c r="M17">
-        <v>68018.2</v>
+        <v>46530.2</v>
       </c>
       <c r="N17">
-        <v>164.4</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>7.779999999999999</v>
+        <v>5.954</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -7869,40 +7868,40 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>70430.2</v>
+        <v>46671.6</v>
       </c>
       <c r="F18">
         <v>100</v>
       </c>
       <c r="G18">
-        <v>59.32000000000001</v>
+        <v>59.532</v>
       </c>
       <c r="H18">
-        <v>2.82</v>
+        <v>1.87</v>
       </c>
       <c r="I18">
-        <v>0.168</v>
+        <v>0.254</v>
       </c>
       <c r="J18">
-        <v>1187.288</v>
+        <v>783.938</v>
       </c>
       <c r="K18">
-        <v>0.046</v>
+        <v>0.03</v>
       </c>
       <c r="L18">
-        <v>199.09</v>
+        <v>199.358</v>
       </c>
       <c r="M18">
-        <v>70430.2</v>
+        <v>46671.6</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.044</v>
+        <v>1.276</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -7915,40 +7914,40 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>68171.2</v>
+        <v>46114.2</v>
       </c>
       <c r="F19">
-        <v>99.884</v>
+        <v>100</v>
       </c>
       <c r="G19">
-        <v>59.54199999999999</v>
+        <v>59.438</v>
       </c>
       <c r="H19">
-        <v>2.732</v>
+        <v>1.846</v>
       </c>
       <c r="I19">
-        <v>0.354</v>
+        <v>0.512</v>
       </c>
       <c r="J19">
-        <v>1145.136</v>
+        <v>775.836</v>
       </c>
       <c r="K19">
-        <v>0.046</v>
+        <v>0.03</v>
       </c>
       <c r="L19">
-        <v>380.52</v>
+        <v>396.958</v>
       </c>
       <c r="M19">
-        <v>68171.2</v>
+        <v>46114.6</v>
       </c>
       <c r="N19">
-        <v>53.2</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.972</v>
+        <v>2.06</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -7961,40 +7960,40 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>73447.60000000001</v>
+        <v>46523</v>
       </c>
       <c r="F20">
         <v>100</v>
       </c>
       <c r="G20">
-        <v>59.584</v>
+        <v>59.532</v>
       </c>
       <c r="H20">
-        <v>2.942</v>
+        <v>1.862</v>
       </c>
       <c r="I20">
-        <v>0.49</v>
+        <v>0.758</v>
       </c>
       <c r="J20">
-        <v>1232.3</v>
+        <v>781.462</v>
       </c>
       <c r="K20">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L20">
-        <v>594.1900000000001</v>
+        <v>593.202</v>
       </c>
       <c r="M20">
-        <v>73447.60000000001</v>
+        <v>46523.2</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>7.697999999999999</v>
+        <v>3.042</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -8007,40 +8006,40 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>75125.60000000001</v>
+        <v>47059.8</v>
       </c>
       <c r="F21">
         <v>100</v>
       </c>
       <c r="G21">
-        <v>59.536</v>
+        <v>59.658</v>
       </c>
       <c r="H21">
-        <v>3.008</v>
+        <v>1.884</v>
       </c>
       <c r="I21">
-        <v>0.63</v>
+        <v>1.004</v>
       </c>
       <c r="J21">
-        <v>1261.458</v>
+        <v>788.826</v>
       </c>
       <c r="K21">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L21">
-        <v>790.674</v>
+        <v>790.384</v>
       </c>
       <c r="M21">
-        <v>75125.8</v>
+        <v>47060.2</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.52</v>
+        <v>3.854</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.006</v>
       </c>
     </row>
   </sheetData>
@@ -8064,13 +8063,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="12" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" customWidth="1"/>
@@ -8134,37 +8132,37 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>65767.32000000001</v>
+        <v>66288.36</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2">
-        <v>59.3656</v>
+        <v>59.45</v>
       </c>
       <c r="G2">
-        <v>53.124</v>
+        <v>53.44600000000001</v>
       </c>
       <c r="H2">
-        <v>0.5379999999999999</v>
+        <v>0.5392</v>
       </c>
       <c r="I2">
-        <v>1107.848</v>
+        <v>1115.1468</v>
       </c>
       <c r="J2">
-        <v>0.8952</v>
+        <v>0.8996000000000001</v>
       </c>
       <c r="K2">
-        <v>593.7056</v>
+        <v>593.802</v>
       </c>
       <c r="L2">
-        <v>65767.48</v>
+        <v>66285.64</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.936</v>
+        <v>3.0184</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -8179,37 +8177,37 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>72317.32000000001</v>
+        <v>72732.44</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3">
-        <v>59.44519999999999</v>
+        <v>59.46680000000001</v>
       </c>
       <c r="G3">
-        <v>6.300800000000001</v>
+        <v>6.312</v>
       </c>
       <c r="H3">
-        <v>0.49</v>
+        <v>0.4868</v>
       </c>
       <c r="I3">
-        <v>1216.566</v>
+        <v>1223.008</v>
       </c>
       <c r="J3">
-        <v>0.1056</v>
+        <v>0.1068</v>
       </c>
       <c r="K3">
-        <v>593.6419999999999</v>
+        <v>593.4336</v>
       </c>
       <c r="L3">
-        <v>72315.64</v>
+        <v>72729.64</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.8088</v>
+        <v>2.614</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -8224,40 +8222,40 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>69721.39999999999</v>
+        <v>49149.32</v>
       </c>
       <c r="E4">
-        <v>99.97840000000001</v>
+        <v>100</v>
       </c>
       <c r="F4">
-        <v>59.5188</v>
+        <v>59.5604</v>
       </c>
       <c r="G4">
-        <v>2.526</v>
+        <v>4.5008</v>
       </c>
       <c r="H4">
-        <v>0.4968</v>
+        <v>0.7136</v>
       </c>
       <c r="I4">
-        <v>1171.1052</v>
+        <v>825.17</v>
       </c>
       <c r="J4">
-        <v>0.0428</v>
+        <v>0.07640000000000001</v>
       </c>
       <c r="K4">
-        <v>575.8952</v>
+        <v>591.6668</v>
       </c>
       <c r="L4">
-        <v>69721.39999999999</v>
+        <v>49149.44</v>
       </c>
       <c r="M4">
-        <v>12.36</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>6.7904</v>
+        <v>6.367999999999999</v>
       </c>
       <c r="O4">
-        <v>0.0004</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -8269,40 +8267,40 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>71038.48</v>
+        <v>46579.76</v>
       </c>
       <c r="E5">
-        <v>99.9132</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>59.5624</v>
+        <v>59.59480000000001</v>
       </c>
       <c r="G5">
-        <v>2.8452</v>
+        <v>1.8652</v>
       </c>
       <c r="H5">
-        <v>0.4884000000000001</v>
+        <v>0.7592</v>
       </c>
       <c r="I5">
-        <v>1192.5812</v>
+        <v>781.5796</v>
       </c>
       <c r="J5">
-        <v>0.0472</v>
+        <v>0.03</v>
       </c>
       <c r="K5">
-        <v>574.9916000000001</v>
+        <v>593.0816</v>
       </c>
       <c r="L5">
-        <v>71038.60000000001</v>
+        <v>46579.96</v>
       </c>
       <c r="M5">
-        <v>43.52</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>6.8028</v>
+        <v>3.2372</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.005600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8322,12 +8320,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="2" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
@@ -8387,40 +8383,40 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>69711.13</v>
+        <v>58687.47</v>
       </c>
       <c r="D2">
-        <v>99.97290000000001</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>59.473</v>
+        <v>59.518</v>
       </c>
       <c r="F2">
-        <v>16.199</v>
+        <v>16.531</v>
       </c>
       <c r="G2">
-        <v>0.5033</v>
+        <v>0.6247</v>
       </c>
       <c r="H2">
-        <v>1172.0251</v>
+        <v>986.2261</v>
       </c>
       <c r="I2">
-        <v>0.2727</v>
+        <v>0.2782</v>
       </c>
       <c r="J2">
-        <v>584.5586</v>
+        <v>592.996</v>
       </c>
       <c r="K2">
-        <v>69710.78</v>
+        <v>58686.17</v>
       </c>
       <c r="L2">
-        <v>13.97</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>4.8345</v>
+        <v>3.8094</v>
       </c>
       <c r="N2">
-        <v>0.0001</v>
+        <v>0.0022</v>
       </c>
     </row>
   </sheetData>
